--- a/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="958" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54C3799A-19EA-4529-8AAC-C333C5293197}"/>
+  <xr:revisionPtr revIDLastSave="970" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48DF991E-94E1-424A-8471-F753BE537874}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Residents" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1164">
   <si>
     <t>First Name</t>
   </si>
@@ -2340,12 +2340,6 @@
     <t>David</t>
   </si>
   <si>
-    <t>Burnett</t>
-  </si>
-  <si>
-    <t>&lt;ddburnett@gmail.com&gt;</t>
-  </si>
-  <si>
     <t>Morgan</t>
   </si>
   <si>
@@ -2550,15 +2544,6 @@
     <t>&lt;santani@gmail.com&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Shammah </t>
-  </si>
-  <si>
-    <t>Chancellor</t>
-  </si>
-  <si>
-    <t>&lt;shammah.chancellor@gmail.com&gt;</t>
-  </si>
-  <si>
     <t>Stephen</t>
   </si>
   <si>
@@ -2634,15 +2619,6 @@
     <t>&lt;bennet.engelhardt@gmail.com&gt;</t>
   </si>
   <si>
-    <t>Jerome</t>
-  </si>
-  <si>
-    <t>Tavé</t>
-  </si>
-  <si>
-    <t>&lt;jerometave@gmail.com&gt;</t>
-  </si>
-  <si>
     <t>Arvind</t>
   </si>
   <si>
@@ -2667,15 +2643,6 @@
     <t>&lt;ray94903@gmail.com&gt;</t>
   </si>
   <si>
-    <t>Manfred</t>
-  </si>
-  <si>
-    <t>MacKeben</t>
-  </si>
-  <si>
-    <t>&lt;manfred.mackeben@gmail.com&gt;</t>
-  </si>
-  <si>
     <t>Olga</t>
   </si>
   <si>
@@ -2694,12 +2661,6 @@
     <t>Jon</t>
   </si>
   <si>
-    <t>Rubin</t>
-  </si>
-  <si>
-    <t>&lt;jonrubin6@gmail.com&gt;</t>
-  </si>
-  <si>
     <t>Merrill</t>
   </si>
   <si>
@@ -2719,30 +2680,6 @@
   </si>
   <si>
     <t>&lt;mwfarmcsa@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard </t>
-  </si>
-  <si>
-    <t>Dewath</t>
-  </si>
-  <si>
-    <t>&lt;dewath@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Sunil</t>
-  </si>
-  <si>
-    <t>Moothedath</t>
-  </si>
-  <si>
-    <t>&lt;sunil@c4h3i.com&gt;</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>&lt;tprice41@gmail.com&gt;</t>
   </si>
   <si>
     <t>Alumni</t>
@@ -4482,9 +4419,9 @@
   </sheetPr>
   <dimension ref="A1:I1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4502,7 +4439,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -4612,20 +4549,20 @@
     </row>
     <row r="5" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>1184</v>
+        <v>1162</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>1163</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -5035,10 +4972,10 @@
     </row>
     <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -5047,10 +4984,10 @@
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5250,7 +5187,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1103</v>
+        <v>1082</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>163</v>
@@ -5570,7 +5507,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>231</v>
@@ -5587,7 +5524,7 @@
     </row>
     <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>233</v>
@@ -5801,42 +5738,42 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
-        <v>1095</v>
+        <v>1074</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1096</v>
+        <v>1075</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1098</v>
+        <v>1077</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="I53" s="53" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1096</v>
+        <v>1075</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>1104</v>
+        <v>1083</v>
       </c>
       <c r="I54" s="53" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5885,7 +5822,7 @@
         <v>288</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>1073</v>
+        <v>1052</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -9169,9 +9106,10 @@
     <hyperlink ref="F56" r:id="rId5" xr:uid="{EA80CD83-9791-49E5-9CC4-F2AA9892E575}"/>
     <hyperlink ref="F22" r:id="rId6" xr:uid="{DFF8D86C-B09F-4E2D-97B8-F45B63E33AAA}"/>
     <hyperlink ref="F54" r:id="rId7" display="jmnaughton1946@gmail.com" xr:uid="{A7FBD182-2FD6-410C-9DE6-4164C35EF8C5}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{4263E288-467C-448D-8E0B-84857F5A2A39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="86" fitToHeight="0" orientation="landscape" r:id="rId8"/>
+  <pageSetup scale="86" fitToHeight="0" orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -9224,7 +9162,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1075</v>
+        <v>1054</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -11432,7 +11370,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -11451,7 +11389,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="52" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="B82" s="52"/>
       <c r="C82" s="52"/>
@@ -12690,7 +12628,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1138</v>
+        <v>1117</v>
       </c>
       <c r="B2" t="s">
         <v>174</v>
@@ -12698,7 +12636,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="B3" t="s">
         <v>174</v>
@@ -12706,7 +12644,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
       <c r="B4" t="s">
         <v>174</v>
@@ -12714,7 +12652,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
       <c r="B5" t="s">
         <v>174</v>
@@ -12722,7 +12660,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
@@ -12730,7 +12668,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1135</v>
+        <v>1114</v>
       </c>
       <c r="B7" t="s">
         <v>160</v>
@@ -12738,7 +12676,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="B8" t="s">
         <v>132</v>
@@ -12746,7 +12684,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="B9" t="s">
         <v>301</v>
@@ -12754,7 +12692,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="B10" t="s">
         <v>222</v>
@@ -12762,7 +12700,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
       <c r="B11" t="s">
         <v>222</v>
@@ -12770,7 +12708,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1111</v>
+        <v>1090</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -12778,15 +12716,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
       <c r="B13" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
@@ -12794,7 +12732,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
@@ -12802,7 +12740,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
       <c r="B16" t="s">
         <v>342</v>
@@ -12810,7 +12748,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
       <c r="B17" t="s">
         <v>342</v>
@@ -12818,7 +12756,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="B18" t="s">
         <v>228</v>
@@ -12826,7 +12764,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
       <c r="B19" t="s">
         <v>208</v>
@@ -12834,7 +12772,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -12842,15 +12780,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
       <c r="B21" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="B22" t="s">
         <v>295</v>
@@ -12858,7 +12796,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="B23" t="s">
         <v>94</v>
@@ -12866,7 +12804,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -12874,7 +12812,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
       <c r="B25" t="s">
         <v>312</v>
@@ -12882,7 +12820,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="B26" t="s">
         <v>355</v>
@@ -12890,7 +12828,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
       <c r="B27" t="s">
         <v>317</v>
@@ -12898,7 +12836,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="B28" t="s">
         <v>327</v>
@@ -12906,7 +12844,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="B29" t="s">
         <v>289</v>
@@ -12914,7 +12852,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
       <c r="B30" t="s">
         <v>170</v>
@@ -12922,7 +12860,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
       <c r="B31" t="s">
         <v>186</v>
@@ -12930,7 +12868,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="B32" t="s">
         <v>369</v>
@@ -12938,7 +12876,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1139</v>
+        <v>1118</v>
       </c>
       <c r="B33" t="s">
         <v>180</v>
@@ -12946,7 +12884,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1119</v>
+        <v>1098</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -12954,7 +12892,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
@@ -12962,7 +12900,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
       <c r="B36" t="s">
         <v>336</v>
@@ -12970,7 +12908,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
       <c r="B37" t="s">
         <v>135</v>
@@ -12978,7 +12916,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
       <c r="B38" t="s">
         <v>147</v>
@@ -12986,7 +12924,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="B39" t="s">
         <v>147</v>
@@ -12994,7 +12932,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="B40" t="s">
         <v>381</v>
@@ -13002,7 +12940,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -13010,7 +12948,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="B42" t="s">
         <v>268</v>
@@ -13018,7 +12956,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="B43" t="s">
         <v>219</v>
@@ -13026,7 +12964,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="B44" t="s">
         <v>213</v>
@@ -13034,7 +12972,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
@@ -13042,7 +12980,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
       <c r="B46" t="s">
         <v>68</v>
@@ -13050,7 +12988,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
       <c r="B47" t="s">
         <v>332</v>
@@ -13058,7 +12996,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="B48" t="s">
         <v>252</v>
@@ -13066,7 +13004,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -13074,7 +13012,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
       <c r="B50" t="s">
         <v>273</v>
@@ -13082,7 +13020,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="B51" t="s">
         <v>79</v>
@@ -13090,7 +13028,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -13098,7 +13036,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
       <c r="B53" t="s">
         <v>374</v>
@@ -13106,7 +13044,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="B54" t="s">
         <v>192</v>
@@ -13114,7 +13052,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1114</v>
+        <v>1093</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -13122,7 +13060,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -13130,7 +13068,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1131</v>
+        <v>1110</v>
       </c>
       <c r="B57" t="s">
         <v>141</v>
@@ -13138,7 +13076,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
       <c r="B58" t="s">
         <v>203</v>
@@ -13146,7 +13084,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1115</v>
+        <v>1094</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
@@ -13154,7 +13092,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
       <c r="B60" t="s">
         <v>277</v>
@@ -13162,7 +13100,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1133</v>
+        <v>1112</v>
       </c>
       <c r="B61" t="s">
         <v>152</v>
@@ -13170,7 +13108,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="B62" t="s">
         <v>154</v>
@@ -13178,7 +13116,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
@@ -13186,7 +13124,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -13194,7 +13132,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
       <c r="B65" t="s">
         <v>385</v>
@@ -13202,7 +13140,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
       <c r="B66" t="s">
         <v>306</v>
@@ -13210,7 +13148,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
       <c r="B67" t="s">
         <v>257</v>
@@ -13218,7 +13156,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="B68" t="s">
         <v>257</v>
@@ -13226,7 +13164,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
@@ -13234,7 +13172,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
       <c r="B70" t="s">
         <v>165</v>
@@ -13242,7 +13180,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
       <c r="B71" t="s">
         <v>237</v>
@@ -13250,7 +13188,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1122</v>
+        <v>1101</v>
       </c>
       <c r="B72" t="s">
         <v>99</v>
@@ -13258,7 +13196,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="B73" t="s">
         <v>90</v>
@@ -13266,7 +13204,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
       <c r="B74" t="s">
         <v>247</v>
@@ -13286,7 +13224,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C62"/>
     </sheetView>
   </sheetViews>
@@ -13302,19 +13240,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -13339,13 +13277,13 @@
         <v>748</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>25</v>
@@ -13379,10 +13317,10 @@
         <v>639</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -13441,7 +13379,7 @@
         <v>645</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>646</v>
@@ -13458,7 +13396,7 @@
         <v>647</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>648</v>
@@ -13498,7 +13436,7 @@
         <v>652</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>143</v>
@@ -13574,7 +13512,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>166</v>
@@ -13679,16 +13617,16 @@
         <v>661</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -13696,7 +13634,7 @@
         <v>662</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>663</v>
@@ -13705,18 +13643,18 @@
         <v>171</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>1050</v>
+        <v>1029</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>188</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>1051</v>
+        <v>1030</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>187</v>
@@ -13733,7 +13671,7 @@
         <v>188</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>187</v>
@@ -13747,7 +13685,7 @@
         <v>664</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1037</v>
+        <v>1016</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>665</v>
@@ -13818,7 +13756,7 @@
         <v>230</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>229</v>
@@ -13829,16 +13767,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>233</v>
@@ -13846,13 +13784,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>1062</v>
+        <v>1041</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>248</v>
@@ -13897,13 +13835,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>258</v>
@@ -13968,13 +13906,13 @@
         <v>684</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>685</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>270</v>
@@ -13991,7 +13929,7 @@
         <v>683</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>270</v>
@@ -14008,7 +13946,7 @@
         <v>682</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>270</v>
@@ -14019,13 +13957,13 @@
         <v>193</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1036</v>
+        <v>1015</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>1076</v>
+        <v>1055</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>270</v>
@@ -14076,7 +14014,7 @@
         <v>690</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>283</v>
@@ -14093,7 +14031,7 @@
         <v>692</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>283</v>
@@ -14104,13 +14042,13 @@
         <v>693</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>694</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>283</v>
@@ -14141,7 +14079,7 @@
         <v>297</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>1077</v>
+        <v>1056</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>296</v>
@@ -14172,7 +14110,7 @@
         <v>701</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>1038</v>
+        <v>1017</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>702</v>
@@ -14186,7 +14124,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>314</v>
@@ -14240,7 +14178,7 @@
         <v>706</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>1035</v>
+        <v>1014</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>707</v>
@@ -14254,10 +14192,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>705</v>
@@ -14311,10 +14249,10 @@
         <v>719</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>376</v>
@@ -14331,7 +14269,7 @@
         <v>717</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>376</v>
@@ -14348,7 +14286,7 @@
         <v>715</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>376</v>
@@ -14743,7 +14681,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>1049</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -14859,9 +14797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA4147-474C-47CD-A0DD-4C67000E8368}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -14877,7 +14815,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>622</v>
@@ -14888,24 +14826,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -14943,7 +14881,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>1047</v>
+        <v>1026</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -14965,18 +14903,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>1048</v>
+        <v>1027</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>743</v>
@@ -14987,46 +14925,35 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>757</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>777</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -15034,21 +14961,21 @@
         <v>728</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>792</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -15062,26 +14989,15 @@
         <v>754</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>827</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>828</v>
-      </c>
-    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -15089,109 +15005,98 @@
         <v>290</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>883</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>884</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>885</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>768</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>769</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>774</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -15199,87 +15104,87 @@
         <v>389</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>782</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>795</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>765</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>760</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -15304,26 +15209,15 @@
         <v>747</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>867</v>
-      </c>
-    </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -15331,10 +15225,10 @@
         <v>672</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -15342,10 +15236,10 @@
         <v>651</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -15361,35 +15255,24 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>887</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>888</v>
+        <v>810</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -15397,21 +15280,21 @@
         <v>755</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -15419,43 +15302,43 @@
         <v>9</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>771</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>772</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>806</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>737</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -15471,13 +15354,13 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>737</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -15485,109 +15368,90 @@
         <v>755</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>890</v>
-      </c>
+      <c r="C57" s="47"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>817</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>798</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>787</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -15595,21 +15459,10 @@
         <v>728</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>856</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -15625,18 +15478,18 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>823</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>1078</v>
+        <v>1057</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>741</v>
@@ -15647,57 +15500,57 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>1070</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1079</v>
+        <v>1058</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>1080</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -15717,7 +15570,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
@@ -15732,7 +15585,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>622</v>
@@ -15746,30 +15599,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -15777,69 +15630,69 @@
         <v>748</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -15847,55 +15700,55 @@
         <v>48</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -15903,41 +15756,41 @@
         <v>755</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -15945,111 +15798,111 @@
         <v>128</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>1045</v>
+        <v>1024</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1046</v>
+        <v>1025</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>463</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -16057,60 +15910,60 @@
         <v>351</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -16118,55 +15971,55 @@
         <v>651</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -16202,7 +16055,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>622</v>
@@ -16219,18 +16072,18 @@
         <v>10</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -16238,43 +16091,43 @@
         <v>629</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>638</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -16285,40 +16138,40 @@
         <v>129</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16326,15 +16179,15 @@
         <v>647</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>1044</v>
+        <v>1023</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>386</v>
@@ -16342,7 +16195,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -16350,21 +16203,21 @@
         <v>637</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -16372,21 +16225,21 @@
         <v>755</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -16420,7 +16273,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -16429,10 +16282,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -16440,7 +16293,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1081</v>
+        <v>1060</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>34</v>
@@ -16448,16 +16301,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>1087</v>
+        <v>1066</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1088</v>
+        <v>1067</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16465,27 +16318,27 @@
         <v>9</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1105</v>
+        <v>1084</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1085</v>
+        <v>1064</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1089</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>658</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>161</v>
@@ -16496,13 +16349,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1091</v>
+        <v>1070</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">

--- a/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="970" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48DF991E-94E1-424A-8471-F753BE537874}"/>
+  <xr:revisionPtr revIDLastSave="977" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D5E067C-32C3-4A3F-B833-6A27FE94C34B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Residents" sheetId="1" r:id="rId1"/>
@@ -2721,9 +2721,6 @@
     <t>Abad</t>
   </si>
   <si>
-    <t>&lt;gabad@heritagesf.org&gt;</t>
-  </si>
-  <si>
     <t>Camarota</t>
   </si>
   <si>
@@ -2733,12 +2730,6 @@
     <t>Alvin</t>
   </si>
   <si>
-    <t>Lachan</t>
-  </si>
-  <si>
-    <t>&lt;rlachan@heritagesf.org&gt;</t>
-  </si>
-  <si>
     <t>Irving</t>
   </si>
   <si>
@@ -3562,6 +3553,15 @@
   </si>
   <si>
     <t>jennifer@arthurassociates.net</t>
+  </si>
+  <si>
+    <t>vabad@heritagesf.org</t>
+  </si>
+  <si>
+    <t>Lochan</t>
+  </si>
+  <si>
+    <t>&lt;rlochan@heritagesf.org&gt;</t>
   </si>
 </sst>
 </file>
@@ -4215,6 +4215,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -4439,7 +4443,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -4552,17 +4556,17 @@
         <v>778</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -4972,10 +4976,10 @@
     </row>
     <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -4984,10 +4988,10 @@
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5187,7 +5191,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>163</v>
@@ -5507,7 +5511,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>231</v>
@@ -5524,7 +5528,7 @@
     </row>
     <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>233</v>
@@ -5738,22 +5742,22 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="F53" s="39" t="s">
         <v>1075</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="I53" s="53" t="s">
         <v>1076</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I53" s="53" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5761,19 +5765,19 @@
         <v>843</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>1080</v>
       </c>
-      <c r="F54" s="40" t="s">
-        <v>1083</v>
-      </c>
       <c r="I54" s="53" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5822,7 +5826,7 @@
         <v>288</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -9162,7 +9166,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -11370,7 +11374,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -11389,7 +11393,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="52" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B82" s="52"/>
       <c r="C82" s="52"/>
@@ -12628,7 +12632,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B2" t="s">
         <v>174</v>
@@ -12636,7 +12640,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B3" t="s">
         <v>174</v>
@@ -12644,7 +12648,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B4" t="s">
         <v>174</v>
@@ -12652,7 +12656,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B5" t="s">
         <v>174</v>
@@ -12660,7 +12664,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
@@ -12668,7 +12672,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B7" t="s">
         <v>160</v>
@@ -12676,7 +12680,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B8" t="s">
         <v>132</v>
@@ -12684,7 +12688,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B9" t="s">
         <v>301</v>
@@ -12692,7 +12696,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B10" t="s">
         <v>222</v>
@@ -12700,7 +12704,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B11" t="s">
         <v>222</v>
@@ -12708,7 +12712,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -12716,15 +12720,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B13" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
@@ -12732,7 +12736,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
@@ -12740,7 +12744,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B16" t="s">
         <v>342</v>
@@ -12748,7 +12752,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B17" t="s">
         <v>342</v>
@@ -12756,7 +12760,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B18" t="s">
         <v>228</v>
@@ -12764,7 +12768,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B19" t="s">
         <v>208</v>
@@ -12772,7 +12776,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -12780,15 +12784,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B21" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B22" t="s">
         <v>295</v>
@@ -12796,7 +12800,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B23" t="s">
         <v>94</v>
@@ -12804,7 +12808,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -12812,7 +12816,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B25" t="s">
         <v>312</v>
@@ -12820,7 +12824,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B26" t="s">
         <v>355</v>
@@ -12828,7 +12832,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B27" t="s">
         <v>317</v>
@@ -12836,7 +12840,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B28" t="s">
         <v>327</v>
@@ -12844,7 +12848,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B29" t="s">
         <v>289</v>
@@ -12852,7 +12856,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B30" t="s">
         <v>170</v>
@@ -12860,7 +12864,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B31" t="s">
         <v>186</v>
@@ -12868,7 +12872,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B32" t="s">
         <v>369</v>
@@ -12876,7 +12880,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B33" t="s">
         <v>180</v>
@@ -12884,7 +12888,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -12892,7 +12896,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
@@ -12900,7 +12904,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B36" t="s">
         <v>336</v>
@@ -12908,7 +12912,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B37" t="s">
         <v>135</v>
@@ -12916,7 +12920,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B38" t="s">
         <v>147</v>
@@ -12924,7 +12928,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B39" t="s">
         <v>147</v>
@@ -12932,7 +12936,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B40" t="s">
         <v>381</v>
@@ -12940,7 +12944,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -12948,7 +12952,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B42" t="s">
         <v>268</v>
@@ -12956,7 +12960,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B43" t="s">
         <v>219</v>
@@ -12964,7 +12968,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B44" t="s">
         <v>213</v>
@@ -12972,7 +12976,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
@@ -12980,7 +12984,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B46" t="s">
         <v>68</v>
@@ -12988,7 +12992,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B47" t="s">
         <v>332</v>
@@ -12996,7 +13000,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B48" t="s">
         <v>252</v>
@@ -13004,7 +13008,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -13012,7 +13016,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B50" t="s">
         <v>273</v>
@@ -13020,7 +13024,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B51" t="s">
         <v>79</v>
@@ -13028,7 +13032,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -13036,7 +13040,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B53" t="s">
         <v>374</v>
@@ -13044,7 +13048,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B54" t="s">
         <v>192</v>
@@ -13052,7 +13056,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -13060,7 +13064,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -13068,7 +13072,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B57" t="s">
         <v>141</v>
@@ -13076,7 +13080,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B58" t="s">
         <v>203</v>
@@ -13084,7 +13088,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
@@ -13092,7 +13096,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B60" t="s">
         <v>277</v>
@@ -13100,7 +13104,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B61" t="s">
         <v>152</v>
@@ -13108,7 +13112,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B62" t="s">
         <v>154</v>
@@ -13116,7 +13120,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
@@ -13124,7 +13128,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -13132,7 +13136,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B65" t="s">
         <v>385</v>
@@ -13140,7 +13144,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B66" t="s">
         <v>306</v>
@@ -13148,7 +13152,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B67" t="s">
         <v>257</v>
@@ -13156,7 +13160,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B68" t="s">
         <v>257</v>
@@ -13164,7 +13168,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
@@ -13172,7 +13176,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B70" t="s">
         <v>165</v>
@@ -13180,7 +13184,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B71" t="s">
         <v>237</v>
@@ -13188,7 +13192,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B72" t="s">
         <v>99</v>
@@ -13196,7 +13200,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B73" t="s">
         <v>90</v>
@@ -13204,7 +13208,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B74" t="s">
         <v>247</v>
@@ -13224,7 +13228,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C62"/>
     </sheetView>
   </sheetViews>
@@ -13240,19 +13244,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -13277,13 +13281,13 @@
         <v>748</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>25</v>
@@ -13317,10 +13321,10 @@
         <v>639</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -13379,7 +13383,7 @@
         <v>645</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>646</v>
@@ -13396,7 +13400,7 @@
         <v>647</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>648</v>
@@ -13436,7 +13440,7 @@
         <v>652</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>143</v>
@@ -13512,7 +13516,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>166</v>
@@ -13617,16 +13621,16 @@
         <v>661</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -13634,7 +13638,7 @@
         <v>662</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>663</v>
@@ -13643,18 +13647,18 @@
         <v>171</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>188</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>187</v>
@@ -13671,7 +13675,7 @@
         <v>188</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>187</v>
@@ -13685,7 +13689,7 @@
         <v>664</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>665</v>
@@ -13756,7 +13760,7 @@
         <v>230</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>229</v>
@@ -13767,16 +13771,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>233</v>
@@ -13784,13 +13788,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>248</v>
@@ -13835,13 +13839,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>258</v>
@@ -13906,13 +13910,13 @@
         <v>684</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>685</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>270</v>
@@ -13929,7 +13933,7 @@
         <v>683</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>270</v>
@@ -13946,7 +13950,7 @@
         <v>682</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>270</v>
@@ -13957,13 +13961,13 @@
         <v>193</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>270</v>
@@ -14014,7 +14018,7 @@
         <v>690</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>283</v>
@@ -14031,7 +14035,7 @@
         <v>692</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>283</v>
@@ -14042,13 +14046,13 @@
         <v>693</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>694</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>283</v>
@@ -14079,7 +14083,7 @@
         <v>297</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>296</v>
@@ -14110,7 +14114,7 @@
         <v>701</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>702</v>
@@ -14124,7 +14128,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>314</v>
@@ -14178,7 +14182,7 @@
         <v>706</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>707</v>
@@ -14195,7 +14199,7 @@
         <v>804</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>705</v>
@@ -14249,10 +14253,10 @@
         <v>719</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>376</v>
@@ -14269,7 +14273,7 @@
         <v>717</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>376</v>
@@ -14286,7 +14290,7 @@
         <v>715</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>376</v>
@@ -14681,7 +14685,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -14797,8 +14801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA4147-474C-47CD-A0DD-4C67000E8368}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
@@ -14815,7 +14819,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>622</v>
@@ -14881,7 +14885,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -14914,7 +14918,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>743</v>
@@ -15024,13 +15028,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -15225,10 +15229,10 @@
         <v>672</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -15368,10 +15372,10 @@
         <v>755</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -15423,13 +15427,13 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -15489,7 +15493,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>741</v>
@@ -15500,57 +15504,57 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -15569,9 +15573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125B352A-F0BB-4FBB-AB9A-46907AE2C1C2}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -15585,7 +15589,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>622</v>
@@ -15604,8 +15608,8 @@
       <c r="B2" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>883</v>
+      <c r="C2" s="38" t="s">
+        <v>1161</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>874</v>
@@ -15636,7 +15640,7 @@
         <v>877</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -15644,10 +15648,10 @@
         <v>824</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>884</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>885</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>874</v>
@@ -15658,10 +15662,10 @@
         <v>862</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>874</v>
@@ -15669,13 +15673,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>874</v>
@@ -15683,13 +15687,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>874</v>
@@ -15700,10 +15704,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>874</v>
@@ -15711,13 +15715,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>874</v>
@@ -15725,13 +15729,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>874</v>
@@ -15739,13 +15743,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>874</v>
@@ -15756,41 +15760,41 @@
         <v>755</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>914</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -15798,10 +15802,10 @@
         <v>128</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>874</v>
@@ -15809,13 +15813,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>874</v>
@@ -15823,13 +15827,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>887</v>
+        <v>1162</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>888</v>
+        <v>1163</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>874</v>
@@ -15837,13 +15841,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>874</v>
@@ -15851,13 +15855,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>874</v>
@@ -15865,13 +15869,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>874</v>
@@ -15879,10 +15883,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>463</v>
@@ -15893,13 +15897,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>874</v>
@@ -15910,10 +15914,10 @@
         <v>351</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>874</v>
@@ -15921,13 +15925,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>874</v>
@@ -15935,13 +15939,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>874</v>
@@ -15949,13 +15953,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>874</v>
@@ -15974,7 +15978,7 @@
         <v>807</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>875</v>
@@ -15988,7 +15992,7 @@
         <v>879</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>880</v>
@@ -15996,30 +16000,30 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -16028,9 +16032,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1" xr:uid="{A0A69456-20B2-498F-A811-8F2078E3E3EB}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E7B626A9-297F-40F7-9BC7-B7567E4CA15C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16055,7 +16060,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>622</v>
@@ -16072,18 +16077,18 @@
         <v>10</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -16091,21 +16096,21 @@
         <v>629</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>638</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -16113,10 +16118,10 @@
         <v>878</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -16124,10 +16129,10 @@
         <v>813</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -16138,40 +16143,40 @@
         <v>129</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16179,15 +16184,15 @@
         <v>647</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>386</v>
@@ -16203,21 +16208,21 @@
         <v>637</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -16225,21 +16230,21 @@
         <v>755</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -16273,7 +16278,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -16282,10 +16287,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -16293,7 +16298,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>34</v>
@@ -16301,16 +16306,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16318,27 +16323,27 @@
         <v>9</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>658</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>161</v>
@@ -16349,13 +16354,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">

--- a/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="977" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D5E067C-32C3-4A3F-B833-6A27FE94C34B}"/>
+  <xr:revisionPtr revIDLastSave="989" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8422920-9A95-47B9-8B3E-0BAF306021ED}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1172">
   <si>
     <t>First Name</t>
   </si>
@@ -3562,6 +3562,30 @@
   </si>
   <si>
     <t>&lt;rlochan@heritagesf.org&gt;</t>
+  </si>
+  <si>
+    <t>frank@rockwoodpacific.com</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Rockwood</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>Kiernat</t>
+  </si>
+  <si>
+    <t>Kerri Young</t>
+  </si>
+  <si>
+    <t>kiernat@page-turnbull.com</t>
+  </si>
+  <si>
+    <t>kyoung@sfheritage.org</t>
   </si>
 </sst>
 </file>
@@ -4424,7 +4448,7 @@
   <dimension ref="A1:I1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2:F74"/>
     </sheetView>
   </sheetViews>
@@ -13225,11 +13249,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F0A003-FE4F-475F-8A7A-E8033874D553}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -13242,7 +13266,7 @@
     <col min="6" max="16384" width="9.23046875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>1050</v>
       </c>
@@ -13259,7 +13283,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>625</v>
       </c>
@@ -13276,7 +13300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>748</v>
       </c>
@@ -13293,7 +13317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>634</v>
       </c>
@@ -13310,7 +13334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>637</v>
       </c>
@@ -13327,7 +13351,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>187</v>
       </c>
@@ -13344,7 +13368,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>641</v>
       </c>
@@ -13361,7 +13385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>643</v>
       </c>
@@ -13378,7 +13402,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>645</v>
       </c>
@@ -13395,7 +13419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>647</v>
       </c>
@@ -13412,7 +13436,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>649</v>
       </c>
@@ -13429,7 +13453,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>651</v>
       </c>
@@ -13446,7 +13470,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>723</v>
       </c>
@@ -13463,24 +13487,24 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>731</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>733</v>
-      </c>
       <c r="D14" s="8" t="s">
         <v>161</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="11" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>726</v>
       </c>
@@ -13497,7 +13521,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>175</v>
       </c>
@@ -14485,7 +14509,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -14802,8 +14826,8 @@
   <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="A13:C13"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -15571,11 +15595,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125B352A-F0BB-4FBB-AB9A-46907AE2C1C2}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C2:C27"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -15965,70 +15989,100 @@
         <v>874</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
         <v>870</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>989</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>878</v>
+        <v>651</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>879</v>
+        <v>807</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>989</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>989</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>937</v>
+        <v>886</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>938</v>
+        <v>887</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>989</v>
       </c>
       <c r="E36" s="11" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>939</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
-    <sortCondition ref="B2:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+    <sortCondition ref="B2:B30"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1" xr:uid="{A0A69456-20B2-498F-A811-8F2078E3E3EB}"/>

--- a/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="989" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8422920-9A95-47B9-8B3E-0BAF306021ED}"/>
+  <xr:revisionPtr revIDLastSave="1006" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E68DA9C-868D-48C7-8A07-0C40DF866C05}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Residents" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1177">
   <si>
     <t>First Name</t>
   </si>
@@ -3586,6 +3586,21 @@
   </si>
   <si>
     <t>kyoung@sfheritage.org</t>
+  </si>
+  <si>
+    <t>09/11</t>
+  </si>
+  <si>
+    <t>Carl Washington</t>
+  </si>
+  <si>
+    <t>415 792-6469</t>
+  </si>
+  <si>
+    <t>cwashington@allcovered.com</t>
+  </si>
+  <si>
+    <t>tessgoldman@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4448,8 +4463,8 @@
   <dimension ref="A1:I1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4594,7 +4609,9 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>1172</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
@@ -9138,6 +9155,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" fitToHeight="0" orientation="landscape" r:id="rId9"/>
+  <ignoredErrors>
+    <ignoredError sqref="I15" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -10078,8 +10098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C4F1CA-A107-47E1-B61D-684F7BB5060E}">
   <dimension ref="A1:Z173"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" showRuler="0" view="pageLayout" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A2:A74"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -10166,20 +10186,20 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="str">
+      <c r="A5" s="43" t="str">
         <v>Jennifer Arthur</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="43" t="str">
         <v>1530 Francisco</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="43" t="str">
         <v>415-564-6616</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="43" t="str">
         <v>jennifer@arthurassociates.net</v>
       </c>
-      <c r="E5" s="11">
-        <v>0</v>
+      <c r="E5" s="43" t="str">
+        <v>09/11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -10577,7 +10597,7 @@
       <c r="A29" s="11" t="str">
         <v>Michele Jackson</v>
       </c>
-      <c r="B29" s="43" t="str">
+      <c r="B29" s="19" t="str">
         <v>1538 Francisco</v>
       </c>
       <c r="C29" s="11" t="str">
@@ -10798,7 +10818,7 @@
       <c r="A42" s="19" t="str">
         <v>Katie Loo</v>
       </c>
-      <c r="B42" s="43" t="str">
+      <c r="B42" s="19" t="str">
         <v>248 M</v>
       </c>
       <c r="C42" s="19" t="str">
@@ -10934,7 +10954,7 @@
       <c r="A50" s="11" t="str">
         <v>Anne Morris</v>
       </c>
-      <c r="B50" s="43" t="str">
+      <c r="B50" s="19" t="str">
         <v>324 M</v>
       </c>
       <c r="C50" s="11" t="str">
@@ -11396,54 +11416,71 @@
       <c r="D77" s="52"/>
       <c r="E77" s="52"/>
     </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
+        <v>993</v>
+      </c>
+    </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
-        <v>993</v>
+      <c r="A79" s="25" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="25" t="s">
-        <v>392</v>
-      </c>
+      <c r="A80" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A81" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A82" s="52" t="s">
+      <c r="A81" s="52" t="s">
         <v>1058</v>
       </c>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A84" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>4</v>
+      <c r="A84" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A85" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="B85" s="19" t="s">
+      <c r="A85" s="11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>398</v>
+      <c r="C85" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.35">
@@ -12636,7 +12673,7 @@
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;14&amp;KC00000Heritage on the Marina&amp;R&amp;"-,Bold Italic"&amp;14&amp;KC00000Heritage Happenings Resident Directory</oddHeader>
-    <oddFooter>&amp;L&amp;14&amp;KC00000March 2025&amp;R&amp;14&amp;KC00000&amp;P</oddFooter>
+    <oddFooter>&amp;L&amp;14&amp;KC00000April 2025&amp;R&amp;14&amp;KC00000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15597,7 +15634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125B352A-F0BB-4FBB-AB9A-46907AE2C1C2}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>

--- a/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1006" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E68DA9C-868D-48C7-8A07-0C40DF866C05}"/>
+  <xr:revisionPtr revIDLastSave="1025" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AF987C4-4644-488F-A1F4-BE6D7FF035B9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Residents" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1190">
   <si>
     <t>First Name</t>
   </si>
@@ -3132,9 +3132,6 @@
     <t>Ernie's friend</t>
   </si>
   <si>
-    <t xml:space="preserve">Shirley </t>
-  </si>
-  <si>
     <t>Mary</t>
   </si>
   <si>
@@ -3579,9 +3576,6 @@
     <t>Kiernat</t>
   </si>
   <si>
-    <t>Kerri Young</t>
-  </si>
-  <si>
     <t>kiernat@page-turnbull.com</t>
   </si>
   <si>
@@ -3601,6 +3595,51 @@
   </si>
   <si>
     <t>tessgoldman@gmail.com</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Kerri</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ray's </t>
+  </si>
+  <si>
+    <t>phyllis17@gmail.com</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>abshaw98@gmail.com</t>
+  </si>
+  <si>
+    <t>Shaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl </t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Phyllis</t>
+  </si>
+  <si>
+    <t>Wedvick</t>
+  </si>
+  <si>
+    <t>quincyeochilds@gmail.com</t>
+  </si>
+  <si>
+    <t>Quincy</t>
+  </si>
+  <si>
+    <t>Childs</t>
   </si>
 </sst>
 </file>
@@ -4463,8 +4502,8 @@
   <dimension ref="A1:I1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4482,7 +4521,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -4595,22 +4634,22 @@
         <v>778</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>1159</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>1160</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5232,7 +5271,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>163</v>
@@ -5552,7 +5591,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>231</v>
@@ -5569,7 +5608,7 @@
     </row>
     <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>233</v>
@@ -5783,22 +5822,22 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>1071</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="D53" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="39" t="s">
         <v>1074</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="I53" s="53" t="s">
         <v>1075</v>
-      </c>
-      <c r="I53" s="53" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5806,19 +5845,19 @@
         <v>843</v>
       </c>
       <c r="B54" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>1073</v>
-      </c>
       <c r="E54" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I54" s="53" t="s">
         <v>1077</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I54" s="53" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5867,7 +5906,7 @@
         <v>288</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -9210,7 +9249,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -10098,7 +10137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C4F1CA-A107-47E1-B61D-684F7BB5060E}">
   <dimension ref="A1:Z173"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" showRuler="0" view="pageLayout" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
@@ -11437,7 +11476,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="52" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B81" s="52"/>
       <c r="C81" s="52"/>
@@ -11466,21 +11505,21 @@
         <v>398</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>397</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.35">
@@ -12693,7 +12732,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B2" t="s">
         <v>174</v>
@@ -12701,7 +12740,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B3" t="s">
         <v>174</v>
@@ -12709,7 +12748,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B4" t="s">
         <v>174</v>
@@ -12717,7 +12756,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B5" t="s">
         <v>174</v>
@@ -12725,7 +12764,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
@@ -12733,7 +12772,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B7" t="s">
         <v>160</v>
@@ -12741,7 +12780,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B8" t="s">
         <v>132</v>
@@ -12749,7 +12788,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B9" t="s">
         <v>301</v>
@@ -12757,7 +12796,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B10" t="s">
         <v>222</v>
@@ -12765,7 +12804,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B11" t="s">
         <v>222</v>
@@ -12773,7 +12812,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -12781,15 +12820,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B13" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
@@ -12797,7 +12836,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
@@ -12805,7 +12844,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B16" t="s">
         <v>342</v>
@@ -12813,7 +12852,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B17" t="s">
         <v>342</v>
@@ -12821,7 +12860,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B18" t="s">
         <v>228</v>
@@ -12829,7 +12868,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B19" t="s">
         <v>208</v>
@@ -12837,7 +12876,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -12845,15 +12884,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B21" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B22" t="s">
         <v>295</v>
@@ -12861,7 +12900,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B23" t="s">
         <v>94</v>
@@ -12869,7 +12908,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -12877,7 +12916,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B25" t="s">
         <v>312</v>
@@ -12885,7 +12924,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B26" t="s">
         <v>355</v>
@@ -12893,7 +12932,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B27" t="s">
         <v>317</v>
@@ -12901,7 +12940,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B28" t="s">
         <v>327</v>
@@ -12909,7 +12948,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B29" t="s">
         <v>289</v>
@@ -12917,7 +12956,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B30" t="s">
         <v>170</v>
@@ -12925,7 +12964,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B31" t="s">
         <v>186</v>
@@ -12933,7 +12972,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B32" t="s">
         <v>369</v>
@@ -12941,7 +12980,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B33" t="s">
         <v>180</v>
@@ -12949,7 +12988,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -12957,7 +12996,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
@@ -12965,7 +13004,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B36" t="s">
         <v>336</v>
@@ -12973,7 +13012,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B37" t="s">
         <v>135</v>
@@ -12981,7 +13020,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B38" t="s">
         <v>147</v>
@@ -12989,7 +13028,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B39" t="s">
         <v>147</v>
@@ -12997,7 +13036,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B40" t="s">
         <v>381</v>
@@ -13005,7 +13044,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -13013,7 +13052,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B42" t="s">
         <v>268</v>
@@ -13021,7 +13060,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B43" t="s">
         <v>219</v>
@@ -13029,7 +13068,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B44" t="s">
         <v>213</v>
@@ -13037,7 +13076,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
@@ -13045,7 +13084,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B46" t="s">
         <v>68</v>
@@ -13053,7 +13092,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B47" t="s">
         <v>332</v>
@@ -13061,7 +13100,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B48" t="s">
         <v>252</v>
@@ -13069,7 +13108,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -13077,7 +13116,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B50" t="s">
         <v>273</v>
@@ -13085,7 +13124,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B51" t="s">
         <v>79</v>
@@ -13093,7 +13132,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -13101,7 +13140,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B53" t="s">
         <v>374</v>
@@ -13109,7 +13148,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B54" t="s">
         <v>192</v>
@@ -13117,7 +13156,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -13125,7 +13164,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -13133,7 +13172,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B57" t="s">
         <v>141</v>
@@ -13141,7 +13180,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B58" t="s">
         <v>203</v>
@@ -13149,7 +13188,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
@@ -13157,7 +13196,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B60" t="s">
         <v>277</v>
@@ -13165,7 +13204,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B61" t="s">
         <v>152</v>
@@ -13173,7 +13212,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B62" t="s">
         <v>154</v>
@@ -13181,7 +13220,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
@@ -13189,7 +13228,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -13197,7 +13236,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B65" t="s">
         <v>385</v>
@@ -13205,7 +13244,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B66" t="s">
         <v>306</v>
@@ -13213,7 +13252,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B67" t="s">
         <v>257</v>
@@ -13221,7 +13260,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B68" t="s">
         <v>257</v>
@@ -13229,7 +13268,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
@@ -13237,7 +13276,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B70" t="s">
         <v>165</v>
@@ -13245,7 +13284,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B71" t="s">
         <v>237</v>
@@ -13253,7 +13292,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B72" t="s">
         <v>99</v>
@@ -13261,7 +13300,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B73" t="s">
         <v>90</v>
@@ -13269,7 +13308,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B74" t="s">
         <v>247</v>
@@ -13289,8 +13328,8 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -13305,7 +13344,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>995</v>
@@ -13342,13 +13381,13 @@
         <v>748</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>25</v>
@@ -13713,13 +13752,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>188</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>187</v>
@@ -13736,7 +13775,7 @@
         <v>188</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>187</v>
@@ -13832,16 +13871,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>233</v>
@@ -13849,13 +13888,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>248</v>
@@ -13900,13 +13939,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>1034</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>1035</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>1036</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>258</v>
@@ -14025,7 +14064,7 @@
         <v>1012</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>1003</v>
@@ -14144,7 +14183,7 @@
         <v>297</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>296</v>
@@ -14746,7 +14785,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -14860,11 +14899,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA4147-474C-47CD-A0DD-4C67000E8368}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -14880,7 +14919,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>622</v>
@@ -14946,7 +14985,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -14979,7 +15018,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>743</v>
@@ -15554,7 +15593,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>741</v>
@@ -15565,57 +15604,122 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>977</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>1047</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>1055</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>1082</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>1084</v>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -15635,8 +15739,8 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -15650,7 +15754,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>622</v>
@@ -15670,7 +15774,7 @@
         <v>882</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>874</v>
@@ -15891,10 +15995,10 @@
         <v>885</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>1162</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>1163</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>874</v>
@@ -15944,10 +16048,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>1021</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>1022</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>463</v>
@@ -16028,32 +16132,24 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>1165</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>1166</v>
-      </c>
       <c r="C29" s="11" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>1168</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -16151,7 +16247,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>622</v>
@@ -16279,14 +16375,6 @@
       </c>
       <c r="C12" s="44" t="s">
         <v>962</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -16369,7 +16457,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -16389,7 +16477,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>34</v>
@@ -16397,16 +16485,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1063</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1064</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16414,27 +16502,27 @@
         <v>9</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>658</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>161</v>
@@ -16445,13 +16533,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>1067</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">

--- a/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1025" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AF987C4-4644-488F-A1F4-BE6D7FF035B9}"/>
+  <xr:revisionPtr revIDLastSave="1029" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D2414A3-14C3-426F-A7C9-D70DDD6B0B09}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1191">
   <si>
     <t>First Name</t>
   </si>
@@ -3606,9 +3606,6 @@
     <t>LD</t>
   </si>
   <si>
-    <t xml:space="preserve">Ray's </t>
-  </si>
-  <si>
     <t>phyllis17@gmail.com</t>
   </si>
   <si>
@@ -3640,6 +3637,12 @@
   </si>
   <si>
     <t>Childs</t>
+  </si>
+  <si>
+    <t>kbaum88@gmail.com</t>
+  </si>
+  <si>
+    <t>Kirshenbaum</t>
   </si>
 </sst>
 </file>
@@ -14899,11 +14902,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA4147-474C-47CD-A0DD-4C67000E8368}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -15672,54 +15675,114 @@
       <c r="A78" s="11" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
-        <v>1178</v>
+      <c r="B78" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>1185</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>1186</v>
-      </c>
       <c r="C80" s="11" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>1183</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>1184</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>1180</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>1188</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>1189</v>
-      </c>
       <c r="C83" s="11" t="s">
-        <v>1187</v>
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -15728,9 +15791,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="C46" r:id="rId1" display="pauld.miller56@gmail.com" xr:uid="{B7C19CA7-AAFF-4CEB-82C9-FE426996D060}"/>
+    <hyperlink ref="C86" r:id="rId2" display="patrickstclaire@yahoo.com" xr:uid="{CC05467B-C936-4890-9DCC-181A092DC390}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16441,7 +16505,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C7"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -16483,65 +16547,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>1067</v>
-      </c>
-    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>30</v>
@@ -16553,7 +16558,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" xr:uid="{33405957-C986-435E-B4F7-B48E571E3812}"/>
-    <hyperlink ref="C4" r:id="rId2" display="patrickstclaire@yahoo.com" xr:uid="{CC05467B-C936-4890-9DCC-181A092DC390}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348E1419F457EB2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1029" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D2414A3-14C3-426F-A7C9-D70DDD6B0B09}"/>
+  <xr:revisionPtr revIDLastSave="1034" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A14B7B80-ABD6-4CEC-9F2E-A6E097A8AF1F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1190">
   <si>
     <t>First Name</t>
   </si>
@@ -2611,9 +2611,6 @@
   </si>
   <si>
     <t>Bennet</t>
-  </si>
-  <si>
-    <t>Englehardt</t>
   </si>
   <si>
     <t>&lt;bennet.engelhardt@gmail.com&gt;</t>
@@ -4524,7 +4521,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -4637,22 +4634,22 @@
         <v>778</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>1158</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>1159</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5059,10 +5056,10 @@
     </row>
     <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>990</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>991</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -5071,10 +5068,10 @@
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5274,7 +5271,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>163</v>
@@ -5594,7 +5591,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>231</v>
@@ -5611,7 +5608,7 @@
     </row>
     <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>233</v>
@@ -5825,22 +5822,22 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>1070</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="D53" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="39" t="s">
         <v>1073</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="I53" s="53" t="s">
         <v>1074</v>
-      </c>
-      <c r="I53" s="53" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5848,19 +5845,19 @@
         <v>843</v>
       </c>
       <c r="B54" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>1072</v>
-      </c>
       <c r="E54" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I54" s="53" t="s">
         <v>1076</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I54" s="53" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5909,7 +5906,7 @@
         <v>288</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -9252,7 +9249,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -11460,7 +11457,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -11479,7 +11476,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="52" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B81" s="52"/>
       <c r="C81" s="52"/>
@@ -11508,21 +11505,21 @@
         <v>398</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>397</v>
       </c>
       <c r="C85" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>1172</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.35">
@@ -12735,7 +12732,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B2" t="s">
         <v>174</v>
@@ -12743,7 +12740,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B3" t="s">
         <v>174</v>
@@ -12751,7 +12748,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B4" t="s">
         <v>174</v>
@@ -12759,7 +12756,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B5" t="s">
         <v>174</v>
@@ -12767,7 +12764,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
@@ -12775,7 +12772,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B7" t="s">
         <v>160</v>
@@ -12783,7 +12780,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B8" t="s">
         <v>132</v>
@@ -12791,7 +12788,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B9" t="s">
         <v>301</v>
@@ -12799,7 +12796,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B10" t="s">
         <v>222</v>
@@ -12807,7 +12804,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B11" t="s">
         <v>222</v>
@@ -12815,7 +12812,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -12823,15 +12820,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
@@ -12839,7 +12836,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
@@ -12847,7 +12844,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B16" t="s">
         <v>342</v>
@@ -12855,7 +12852,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B17" t="s">
         <v>342</v>
@@ -12863,7 +12860,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B18" t="s">
         <v>228</v>
@@ -12871,7 +12868,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B19" t="s">
         <v>208</v>
@@ -12879,7 +12876,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -12887,15 +12884,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B21" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B22" t="s">
         <v>295</v>
@@ -12903,7 +12900,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B23" t="s">
         <v>94</v>
@@ -12911,7 +12908,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -12919,7 +12916,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B25" t="s">
         <v>312</v>
@@ -12927,7 +12924,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B26" t="s">
         <v>355</v>
@@ -12935,7 +12932,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B27" t="s">
         <v>317</v>
@@ -12943,7 +12940,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B28" t="s">
         <v>327</v>
@@ -12951,7 +12948,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B29" t="s">
         <v>289</v>
@@ -12959,7 +12956,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B30" t="s">
         <v>170</v>
@@ -12967,7 +12964,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B31" t="s">
         <v>186</v>
@@ -12975,7 +12972,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B32" t="s">
         <v>369</v>
@@ -12983,7 +12980,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B33" t="s">
         <v>180</v>
@@ -12991,7 +12988,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -12999,7 +12996,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
@@ -13007,7 +13004,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B36" t="s">
         <v>336</v>
@@ -13015,7 +13012,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B37" t="s">
         <v>135</v>
@@ -13023,7 +13020,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B38" t="s">
         <v>147</v>
@@ -13031,7 +13028,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B39" t="s">
         <v>147</v>
@@ -13039,7 +13036,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B40" t="s">
         <v>381</v>
@@ -13047,7 +13044,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -13055,7 +13052,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B42" t="s">
         <v>268</v>
@@ -13063,7 +13060,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B43" t="s">
         <v>219</v>
@@ -13071,7 +13068,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B44" t="s">
         <v>213</v>
@@ -13079,7 +13076,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
@@ -13087,7 +13084,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B46" t="s">
         <v>68</v>
@@ -13095,7 +13092,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B47" t="s">
         <v>332</v>
@@ -13103,7 +13100,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B48" t="s">
         <v>252</v>
@@ -13111,7 +13108,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -13119,7 +13116,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B50" t="s">
         <v>273</v>
@@ -13127,7 +13124,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B51" t="s">
         <v>79</v>
@@ -13135,7 +13132,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -13143,7 +13140,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B53" t="s">
         <v>374</v>
@@ -13151,7 +13148,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B54" t="s">
         <v>192</v>
@@ -13159,7 +13156,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -13167,7 +13164,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -13175,7 +13172,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B57" t="s">
         <v>141</v>
@@ -13183,7 +13180,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B58" t="s">
         <v>203</v>
@@ -13191,7 +13188,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
@@ -13199,7 +13196,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B60" t="s">
         <v>277</v>
@@ -13207,7 +13204,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B61" t="s">
         <v>152</v>
@@ -13215,7 +13212,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B62" t="s">
         <v>154</v>
@@ -13223,7 +13220,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
@@ -13231,7 +13228,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -13239,7 +13236,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B65" t="s">
         <v>385</v>
@@ -13247,7 +13244,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B66" t="s">
         <v>306</v>
@@ -13255,7 +13252,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B67" t="s">
         <v>257</v>
@@ -13263,7 +13260,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B68" t="s">
         <v>257</v>
@@ -13271,7 +13268,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
@@ -13279,7 +13276,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B70" t="s">
         <v>165</v>
@@ -13287,7 +13284,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B71" t="s">
         <v>237</v>
@@ -13295,7 +13292,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B72" t="s">
         <v>99</v>
@@ -13303,7 +13300,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B73" t="s">
         <v>90</v>
@@ -13311,7 +13308,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B74" t="s">
         <v>247</v>
@@ -13347,19 +13344,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>995</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>996</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -13384,13 +13381,13 @@
         <v>748</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>25</v>
@@ -13424,10 +13421,10 @@
         <v>639</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>1004</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -13486,7 +13483,7 @@
         <v>645</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>646</v>
@@ -13503,7 +13500,7 @@
         <v>647</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>648</v>
@@ -13543,7 +13540,7 @@
         <v>652</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>143</v>
@@ -13619,7 +13616,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>166</v>
@@ -13724,16 +13721,16 @@
         <v>661</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>999</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>1000</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -13741,7 +13738,7 @@
         <v>662</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>663</v>
@@ -13750,18 +13747,18 @@
         <v>171</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>188</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>187</v>
@@ -13778,7 +13775,7 @@
         <v>188</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>187</v>
@@ -13792,7 +13789,7 @@
         <v>664</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>665</v>
@@ -13863,7 +13860,7 @@
         <v>230</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>229</v>
@@ -13874,16 +13871,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>233</v>
@@ -13891,13 +13888,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>248</v>
@@ -13942,13 +13939,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>1034</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>1035</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>258</v>
@@ -14013,13 +14010,13 @@
         <v>684</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>685</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>270</v>
@@ -14036,7 +14033,7 @@
         <v>683</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>270</v>
@@ -14053,7 +14050,7 @@
         <v>682</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>270</v>
@@ -14064,13 +14061,13 @@
         <v>193</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>270</v>
@@ -14121,7 +14118,7 @@
         <v>690</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>283</v>
@@ -14138,7 +14135,7 @@
         <v>692</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>283</v>
@@ -14149,13 +14146,13 @@
         <v>693</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>694</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>283</v>
@@ -14186,7 +14183,7 @@
         <v>297</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>296</v>
@@ -14217,7 +14214,7 @@
         <v>701</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>702</v>
@@ -14231,7 +14228,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>314</v>
@@ -14285,7 +14282,7 @@
         <v>706</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>707</v>
@@ -14302,7 +14299,7 @@
         <v>804</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>705</v>
@@ -14356,10 +14353,10 @@
         <v>719</v>
       </c>
       <c r="C60" s="38" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>1006</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>1007</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>376</v>
@@ -14376,7 +14373,7 @@
         <v>717</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>376</v>
@@ -14393,7 +14390,7 @@
         <v>715</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>376</v>
@@ -14788,7 +14785,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -14905,8 +14902,8 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -14922,7 +14919,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>622</v>
@@ -14933,24 +14930,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>853</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>858</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -14988,7 +14985,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -15021,7 +15018,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>743</v>
@@ -15131,13 +15128,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>981</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>982</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -15156,10 +15153,10 @@
         <v>815</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>855</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -15200,10 +15197,10 @@
         <v>846</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>847</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -15233,10 +15230,10 @@
         <v>793</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>860</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -15318,13 +15315,13 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>868</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -15332,10 +15329,10 @@
         <v>672</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>984</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -15343,10 +15340,10 @@
         <v>651</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>863</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -15461,13 +15458,13 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>737</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -15475,10 +15472,10 @@
         <v>755</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>979</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -15519,24 +15516,24 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>850</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="C63" s="19" t="s">
         <v>977</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -15596,7 +15593,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>741</v>
@@ -15607,137 +15604,137 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>1044</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>977</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>1046</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>1054</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>1082</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>1184</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>1185</v>
-      </c>
       <c r="C80" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>1182</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>1183</v>
-      </c>
       <c r="C81" s="11" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>1179</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>1187</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>1188</v>
-      </c>
       <c r="C83" s="11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>1063</v>
-      </c>
       <c r="C85" s="11" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -15745,27 +15742,27 @@
         <v>9</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>658</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>161</v>
@@ -15776,13 +15773,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>1066</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -15818,7 +15815,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>622</v>
@@ -15832,30 +15829,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>882</v>
-      </c>
       <c r="C2" s="38" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>872</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>873</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -15863,13 +15860,13 @@
         <v>748</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>877</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -15877,55 +15874,55 @@
         <v>824</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>884</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>890</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>893</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>896</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -15933,55 +15930,55 @@
         <v>48</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>898</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>900</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>901</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>904</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>907</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -15989,41 +15986,41 @@
         <v>755</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>909</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>908</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>911</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>914</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -16031,111 +16028,111 @@
         <v>128</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>916</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>918</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>919</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>1162</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>922</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>925</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>928</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>1020</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>1021</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>463</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>931</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -16143,82 +16140,82 @@
         <v>351</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>933</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>935</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>936</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>942</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>944</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>945</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>1164</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>1165</v>
-      </c>
       <c r="C29" s="11" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>1166</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>1167</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -16229,52 +16226,52 @@
         <v>807</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="D35" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>879</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>989</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="D36" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>887</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>989</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="D37" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>938</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>989</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -16311,7 +16308,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>622</v>
@@ -16328,18 +16325,18 @@
         <v>10</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
+        <v>953</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>954</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="C3" s="44" t="s">
         <v>955</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -16347,32 +16344,32 @@
         <v>629</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>963</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>964</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>638</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B6" s="44" t="s">
+        <v>947</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>948</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -16380,10 +16377,10 @@
         <v>813</v>
       </c>
       <c r="B7" s="44" t="s">
+        <v>945</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>946</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -16394,40 +16391,40 @@
         <v>129</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
+        <v>949</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="C9" s="44" t="s">
         <v>951</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B10" s="44" t="s">
+        <v>958</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>959</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
+        <v>967</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>968</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="C11" s="44" t="s">
         <v>969</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16435,15 +16432,15 @@
         <v>647</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>960</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>961</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -16451,21 +16448,21 @@
         <v>637</v>
       </c>
       <c r="B20" s="44" t="s">
+        <v>965</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>966</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
+        <v>967</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>968</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="D21" s="44" t="s">
         <v>969</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -16473,21 +16470,21 @@
         <v>755</v>
       </c>
       <c r="B22" s="44" t="s">
+        <v>970</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>971</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
+        <v>972</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>973</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="D23" s="44" t="s">
         <v>974</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -16521,7 +16518,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -16530,10 +16527,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>996</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -16541,7 +16538,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>34</v>

--- a/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348E1419F457EB2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1034" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A14B7B80-ABD6-4CEC-9F2E-A6E097A8AF1F}"/>
+  <xr:revisionPtr revIDLastSave="1040" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBA64D50-F40D-47F3-AF20-70ADC28641D3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Residents" sheetId="1" r:id="rId1"/>
@@ -1149,9 +1149,6 @@
     <t>415 474-5875</t>
   </si>
   <si>
-    <t>nancytrogman@gmail.com</t>
-  </si>
-  <si>
     <t>Mercedes</t>
   </si>
   <si>
@@ -3640,6 +3637,9 @@
   </si>
   <si>
     <t>Kirshenbaum</t>
+  </si>
+  <si>
+    <t>ntrogman@icloud.com</t>
   </si>
 </sst>
 </file>
@@ -4293,10 +4293,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -4501,9 +4497,9 @@
   </sheetPr>
   <dimension ref="A1:I1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4521,7 +4517,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -4631,25 +4627,25 @@
     </row>
     <row r="5" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>1157</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>1158</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5056,10 +5052,10 @@
     </row>
     <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>989</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>990</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -5068,10 +5064,10 @@
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5271,7 +5267,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>163</v>
@@ -5591,7 +5587,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>231</v>
@@ -5608,7 +5604,7 @@
     </row>
     <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>233</v>
@@ -5822,42 +5818,42 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>1069</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="D53" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="39" t="s">
         <v>1072</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="I53" s="53" t="s">
         <v>1073</v>
-      </c>
-      <c r="I53" s="53" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B54" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>1071</v>
-      </c>
       <c r="E54" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I54" s="53" t="s">
         <v>1075</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I54" s="53" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -5906,7 +5902,7 @@
         <v>288</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -6228,7 +6224,7 @@
         <v>358</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>359</v>
+        <v>1189</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>222</v>
@@ -6236,22 +6232,22 @@
     </row>
     <row r="70" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B70" s="17" t="s">
         <v>360</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>361</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="39" t="s">
         <v>363</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>364</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>174</v>
@@ -6259,101 +6255,101 @@
     </row>
     <row r="71" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>370</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>371</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>376</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="F73" s="39" t="s">
+      <c r="G73" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F74" s="39" t="s">
         <v>383</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>384</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
@@ -6361,16 +6357,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="3" t="s">
@@ -9184,13 +9180,13 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F43" r:id="rId1" xr:uid="{CDBBF06F-F14A-4498-90CE-C282A8559E3D}"/>
-    <hyperlink ref="F69" r:id="rId2" xr:uid="{200D1BA3-E89A-4016-A8DD-35E5E9834BB2}"/>
-    <hyperlink ref="F35" r:id="rId3" xr:uid="{5DCDFE5E-B58C-46B3-9547-B5C25021E64A}"/>
-    <hyperlink ref="F14" r:id="rId4" xr:uid="{592A1B3B-B2F7-4CDC-BDAC-D1AD979F0536}"/>
-    <hyperlink ref="F56" r:id="rId5" xr:uid="{EA80CD83-9791-49E5-9CC4-F2AA9892E575}"/>
-    <hyperlink ref="F22" r:id="rId6" xr:uid="{DFF8D86C-B09F-4E2D-97B8-F45B63E33AAA}"/>
-    <hyperlink ref="F54" r:id="rId7" display="jmnaughton1946@gmail.com" xr:uid="{A7FBD182-2FD6-410C-9DE6-4164C35EF8C5}"/>
-    <hyperlink ref="F5" r:id="rId8" xr:uid="{4263E288-467C-448D-8E0B-84857F5A2A39}"/>
+    <hyperlink ref="F35" r:id="rId2" xr:uid="{5DCDFE5E-B58C-46B3-9547-B5C25021E64A}"/>
+    <hyperlink ref="F14" r:id="rId3" xr:uid="{592A1B3B-B2F7-4CDC-BDAC-D1AD979F0536}"/>
+    <hyperlink ref="F56" r:id="rId4" xr:uid="{EA80CD83-9791-49E5-9CC4-F2AA9892E575}"/>
+    <hyperlink ref="F22" r:id="rId5" xr:uid="{DFF8D86C-B09F-4E2D-97B8-F45B63E33AAA}"/>
+    <hyperlink ref="F54" r:id="rId6" display="jmnaughton1946@gmail.com" xr:uid="{A7FBD182-2FD6-410C-9DE6-4164C35EF8C5}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{4263E288-467C-448D-8E0B-84857F5A2A39}"/>
+    <hyperlink ref="F69" r:id="rId8" display="nancytrogman@gmail.com" xr:uid="{200D1BA3-E89A-4016-A8DD-35E5E9834BB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" fitToHeight="0" orientation="landscape" r:id="rId9"/>
@@ -9249,7 +9245,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -9258,18 +9254,18 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
@@ -9279,10 +9275,10 @@
         <v>254</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>53</v>
@@ -9294,12 +9290,12 @@
         <v>104</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -9309,40 +9305,40 @@
         <v>348</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -9352,24 +9348,24 @@
         <v>173</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -9379,10 +9375,10 @@
         <v>189</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>53</v>
@@ -9391,15 +9387,15 @@
         <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
@@ -9409,24 +9405,24 @@
         <v>189</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -9436,7 +9432,7 @@
         <v>315</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3" t="s">
@@ -9444,34 +9440,34 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>523</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>524</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -9501,32 +9497,32 @@
     </row>
     <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
@@ -9536,25 +9532,25 @@
         <v>167</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>537</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>538</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>19</v>
@@ -9563,10 +9559,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>539</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>540</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>22</v>
@@ -9575,30 +9571,30 @@
         <v>15</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -9609,10 +9605,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="J17" s="9">
         <v>44763</v>
@@ -9620,43 +9616,43 @@
     </row>
     <row r="18" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>22</v>
@@ -9665,21 +9661,21 @@
         <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -9689,52 +9685,52 @@
         <v>167</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
@@ -9744,14 +9740,14 @@
         <v>357</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>575</v>
       </c>
       <c r="K23" s="16"/>
     </row>
@@ -9784,7 +9780,7 @@
     </row>
     <row r="25" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
@@ -9794,19 +9790,19 @@
         <v>250</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="3" t="s">
@@ -9816,32 +9812,32 @@
         <v>211</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>584</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>585</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30" t="s">
@@ -9849,36 +9845,36 @@
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="J27" s="33" t="s">
         <v>586</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -9888,20 +9884,20 @@
         <v>124</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -9930,7 +9926,7 @@
     </row>
     <row r="31" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -9940,105 +9936,105 @@
         <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="I35" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:11" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38"/>
@@ -10053,7 +10049,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -10063,7 +10059,7 @@
         <v>250</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -10071,10 +10067,10 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -10153,7 +10149,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -10165,7 +10161,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -11323,7 +11319,7 @@
         <v>415 474-5875</v>
       </c>
       <c r="D69" s="19" t="str">
-        <v>nancytrogman@gmail.com</v>
+        <v>ntrogman@icloud.com</v>
       </c>
       <c r="E69" s="19" t="str">
         <v>01/26</v>
@@ -11457,17 +11453,17 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -11476,7 +11472,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="52" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B81" s="52"/>
       <c r="C81" s="52"/>
@@ -11485,10 +11481,10 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B83" s="13" t="s">
         <v>394</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>4</v>
@@ -11496,59 +11492,59 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="C84" s="19" t="s">
-        <v>398</v>
-      </c>
       <c r="D84" s="11" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>1170</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C85" s="11" t="s">
+      <c r="D85" s="11" t="s">
         <v>1171</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="C86" s="19" t="s">
         <v>400</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>401</v>
       </c>
       <c r="D86" s="19"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>402</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>403</v>
       </c>
       <c r="D87" s="19"/>
     </row>
     <row r="88" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>4</v>
@@ -11581,11 +11577,11 @@
     </row>
     <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="7"/>
@@ -11613,14 +11609,14 @@
     </row>
     <row r="90" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -11647,11 +11643,11 @@
     </row>
     <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B91" s="37"/>
       <c r="C91" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="7"/>
@@ -11679,11 +11675,11 @@
     </row>
     <row r="92" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B92" s="37"/>
       <c r="C92" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="7"/>
@@ -11711,11 +11707,11 @@
     </row>
     <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B93" s="37"/>
       <c r="C93" s="37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="7"/>
@@ -11743,11 +11739,11 @@
     </row>
     <row r="94" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="7"/>
@@ -11775,10 +11771,10 @@
     </row>
     <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="11"/>
@@ -11807,16 +11803,16 @@
     </row>
     <row r="96" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="C96" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="D96" s="19" t="s">
         <v>422</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>423</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="7"/>
@@ -11843,16 +11839,16 @@
     </row>
     <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="D97" s="11" t="s">
         <v>426</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="7"/>
@@ -11879,16 +11875,16 @@
     </row>
     <row r="98" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="D98" s="11" t="s">
         <v>430</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>431</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="7"/>
@@ -11915,16 +11911,16 @@
     </row>
     <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="D99" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>435</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -11951,16 +11947,16 @@
     </row>
     <row r="100" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B100" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="B100" s="37" t="s">
+      <c r="C100" s="37" t="s">
         <v>437</v>
       </c>
-      <c r="C100" s="37" t="s">
+      <c r="D100" s="19" t="s">
         <v>438</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>439</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -11987,16 +11983,16 @@
     </row>
     <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B101" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="C101" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="D101" s="19" t="s">
         <v>442</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>443</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -12023,16 +12019,16 @@
     </row>
     <row r="102" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="B102" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="C102" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="C102" s="37" t="s">
+      <c r="D102" s="19" t="s">
         <v>446</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>447</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -12059,16 +12055,16 @@
     </row>
     <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="B103" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="B103" s="37" t="s">
+      <c r="C103" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="C103" s="37" t="s">
+      <c r="D103" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>451</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -12095,16 +12091,16 @@
     </row>
     <row r="104" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="C104" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="C104" s="37" t="s">
+      <c r="D104" s="19" t="s">
         <v>454</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>455</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="7"/>
@@ -12131,16 +12127,16 @@
     </row>
     <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B105" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="C105" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="C105" s="37" t="s">
+      <c r="D105" s="19" t="s">
         <v>458</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>459</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="7"/>
@@ -12167,16 +12163,16 @@
     </row>
     <row r="106" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="C106" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C106" s="37" t="s">
+      <c r="D106" s="19" t="s">
         <v>462</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>463</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="7"/>
@@ -12203,14 +12199,14 @@
     </row>
     <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="B107" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="7"/>
@@ -12237,16 +12233,16 @@
     </row>
     <row r="108" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B108" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="C108" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="C108" s="37" t="s">
+      <c r="D108" s="19" t="s">
         <v>469</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>470</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="7"/>
@@ -12273,16 +12269,16 @@
     </row>
     <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="B109" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="C109" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="D109" s="19" t="s">
         <v>473</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>474</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="7"/>
@@ -12309,16 +12305,16 @@
     </row>
     <row r="110" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B110" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="C110" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="C110" s="37" t="s">
+      <c r="D110" s="19" t="s">
         <v>477</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>478</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="7"/>
@@ -12345,16 +12341,16 @@
     </row>
     <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B111" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="C111" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="C111" s="37" t="s">
+      <c r="D111" s="19" t="s">
         <v>481</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>482</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="7"/>
@@ -12381,7 +12377,7 @@
     </row>
     <row r="112" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="7"/>
@@ -12411,7 +12407,7 @@
     </row>
     <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -12441,11 +12437,11 @@
     </row>
     <row r="114" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B114" s="30"/>
       <c r="C114" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D114" s="11"/>
       <c r="F114" s="7"/>
@@ -12472,10 +12468,10 @@
     </row>
     <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="D115" s="11"/>
       <c r="F115" s="7"/>
@@ -12502,11 +12498,11 @@
     </row>
     <row r="116" spans="1:26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="7"/>
@@ -12732,7 +12728,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B2" t="s">
         <v>174</v>
@@ -12740,7 +12736,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B3" t="s">
         <v>174</v>
@@ -12748,7 +12744,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B4" t="s">
         <v>174</v>
@@ -12756,7 +12752,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B5" t="s">
         <v>174</v>
@@ -12764,7 +12760,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
@@ -12772,7 +12768,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B7" t="s">
         <v>160</v>
@@ -12780,7 +12776,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B8" t="s">
         <v>132</v>
@@ -12788,7 +12784,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B9" t="s">
         <v>301</v>
@@ -12796,7 +12792,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B10" t="s">
         <v>222</v>
@@ -12804,7 +12800,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B11" t="s">
         <v>222</v>
@@ -12812,7 +12808,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -12820,15 +12816,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B13" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
@@ -12836,7 +12832,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
@@ -12844,7 +12840,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B16" t="s">
         <v>342</v>
@@ -12852,7 +12848,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B17" t="s">
         <v>342</v>
@@ -12860,7 +12856,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B18" t="s">
         <v>228</v>
@@ -12868,7 +12864,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B19" t="s">
         <v>208</v>
@@ -12876,7 +12872,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -12884,15 +12880,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B21" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B22" t="s">
         <v>295</v>
@@ -12900,7 +12896,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B23" t="s">
         <v>94</v>
@@ -12908,7 +12904,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -12916,7 +12912,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B25" t="s">
         <v>312</v>
@@ -12924,7 +12920,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B26" t="s">
         <v>355</v>
@@ -12932,7 +12928,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B27" t="s">
         <v>317</v>
@@ -12940,7 +12936,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B28" t="s">
         <v>327</v>
@@ -12948,7 +12944,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B29" t="s">
         <v>289</v>
@@ -12956,7 +12952,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B30" t="s">
         <v>170</v>
@@ -12964,7 +12960,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B31" t="s">
         <v>186</v>
@@ -12972,15 +12968,15 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B33" t="s">
         <v>180</v>
@@ -12988,7 +12984,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -12996,7 +12992,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
@@ -13004,7 +13000,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B36" t="s">
         <v>336</v>
@@ -13012,7 +13008,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B37" t="s">
         <v>135</v>
@@ -13020,7 +13016,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B38" t="s">
         <v>147</v>
@@ -13028,7 +13024,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B39" t="s">
         <v>147</v>
@@ -13036,15 +13032,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -13052,7 +13048,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B42" t="s">
         <v>268</v>
@@ -13060,7 +13056,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B43" t="s">
         <v>219</v>
@@ -13068,7 +13064,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B44" t="s">
         <v>213</v>
@@ -13076,7 +13072,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
@@ -13084,7 +13080,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B46" t="s">
         <v>68</v>
@@ -13092,7 +13088,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B47" t="s">
         <v>332</v>
@@ -13100,7 +13096,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B48" t="s">
         <v>252</v>
@@ -13108,7 +13104,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -13116,7 +13112,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B50" t="s">
         <v>273</v>
@@ -13124,7 +13120,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B51" t="s">
         <v>79</v>
@@ -13132,7 +13128,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -13140,15 +13136,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B54" t="s">
         <v>192</v>
@@ -13156,7 +13152,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -13164,7 +13160,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -13172,7 +13168,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B57" t="s">
         <v>141</v>
@@ -13180,7 +13176,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B58" t="s">
         <v>203</v>
@@ -13188,7 +13184,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
@@ -13196,7 +13192,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B60" t="s">
         <v>277</v>
@@ -13204,7 +13200,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B61" t="s">
         <v>152</v>
@@ -13212,7 +13208,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B62" t="s">
         <v>154</v>
@@ -13220,7 +13216,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
@@ -13228,7 +13224,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -13236,15 +13232,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B66" t="s">
         <v>306</v>
@@ -13252,7 +13248,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B67" t="s">
         <v>257</v>
@@ -13260,7 +13256,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B68" t="s">
         <v>257</v>
@@ -13268,7 +13264,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
@@ -13276,7 +13272,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B70" t="s">
         <v>165</v>
@@ -13284,7 +13280,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B71" t="s">
         <v>237</v>
@@ -13292,7 +13288,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B72" t="s">
         <v>99</v>
@@ -13300,7 +13296,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B73" t="s">
         <v>90</v>
@@ -13308,7 +13304,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B74" t="s">
         <v>247</v>
@@ -13344,30 +13340,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>994</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>995</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
@@ -13378,16 +13374,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>25</v>
@@ -13395,13 +13391,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="19" t="s">
         <v>635</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>636</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>36</v>
@@ -13412,19 +13408,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>639</v>
-      </c>
       <c r="D5" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>1003</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -13435,7 +13431,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>75</v>
@@ -13446,13 +13442,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>80</v>
@@ -13463,13 +13459,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>100</v>
@@ -13480,13 +13476,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>645</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>646</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>100</v>
@@ -13497,13 +13493,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>647</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>997</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>648</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>111</v>
@@ -13514,13 +13510,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>48</v>
@@ -13531,16 +13527,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>143</v>
@@ -13548,13 +13544,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>723</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="C13" s="11" t="s">
         <v>724</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>725</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>161</v>
@@ -13565,10 +13561,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>731</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>732</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>161</v>
@@ -13577,18 +13573,18 @@
         <v>166</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>161</v>
@@ -13605,7 +13601,7 @@
         <v>166</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>161</v>
@@ -13616,13 +13612,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>161</v>
@@ -13633,13 +13629,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>161</v>
@@ -13653,10 +13649,10 @@
         <v>187</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>161</v>
@@ -13667,13 +13663,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>729</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>730</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>161</v>
@@ -13684,13 +13680,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>720</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="C21" s="11" t="s">
         <v>721</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>722</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>161</v>
@@ -13701,13 +13697,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="19" t="s">
         <v>658</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>659</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>161</v>
@@ -13718,47 +13714,47 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>998</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>999</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>662</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>998</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>663</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>188</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>187</v>
@@ -13769,13 +13765,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>188</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>187</v>
@@ -13786,13 +13782,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>664</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>665</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>198</v>
@@ -13803,13 +13799,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>205</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>204</v>
@@ -13820,13 +13816,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>210</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>209</v>
@@ -13837,13 +13833,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>210</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>209</v>
@@ -13854,13 +13850,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>229</v>
@@ -13871,16 +13867,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>233</v>
@@ -13888,13 +13884,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>248</v>
@@ -13905,13 +13901,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>161</v>
@@ -13922,13 +13918,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>161</v>
@@ -13939,13 +13935,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>1033</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>1034</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>258</v>
@@ -13962,7 +13958,7 @@
         <v>264</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>263</v>
@@ -13973,13 +13969,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>264</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>263</v>
@@ -13990,13 +13986,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>264</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>263</v>
@@ -14007,16 +14003,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>1001</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>685</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>1002</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>270</v>
@@ -14024,16 +14020,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>270</v>
@@ -14041,16 +14037,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>270</v>
@@ -14061,13 +14057,13 @@
         <v>193</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>270</v>
@@ -14075,13 +14071,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>274</v>
@@ -14092,13 +14088,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>274</v>
@@ -14109,16 +14105,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>690</v>
-      </c>
       <c r="D46" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>283</v>
@@ -14126,16 +14122,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>692</v>
-      </c>
       <c r="D47" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>283</v>
@@ -14143,16 +14139,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>693</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>694</v>
-      </c>
       <c r="D48" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>283</v>
@@ -14160,13 +14156,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>297</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>296</v>
@@ -14177,13 +14173,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>297</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>296</v>
@@ -14194,13 +14190,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="19" t="s">
         <v>699</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>700</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>302</v>
@@ -14211,13 +14207,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>701</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>702</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>302</v>
@@ -14228,13 +14224,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>313</v>
@@ -14245,13 +14241,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>338</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>337</v>
@@ -14262,138 +14258,138 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>709</v>
-      </c>
       <c r="D55" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>707</v>
-      </c>
       <c r="D56" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D57" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>712</v>
-      </c>
       <c r="D58" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>714</v>
-      </c>
       <c r="D59" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>719</v>
-      </c>
       <c r="C60" s="38" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>1006</v>
-      </c>
       <c r="E60" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>735</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>717</v>
-      </c>
       <c r="D61" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -14785,7 +14781,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -14870,23 +14866,23 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B37" s="48" t="s">
         <v>100</v>
@@ -14901,7 +14897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA4147-474C-47CD-A0DD-4C67000E8368}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
@@ -14919,189 +14915,189 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>622</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>851</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>852</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>857</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>743</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>838</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>776</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>791</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>753</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>825</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -15109,296 +15105,296 @@
         <v>290</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>799</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>980</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>981</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>767</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>854</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>841</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>773</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>811</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>846</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>761</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>780</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>781</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>859</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>794</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>764</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>802</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>759</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="46" t="s">
         <v>749</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>746</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>867</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>983</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>862</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>751</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>844</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>756</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>813</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -15406,76 +15402,76 @@
         <v>9</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>807</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>770</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>805</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>835</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>737</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>864</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>978</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -15483,258 +15479,258 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>833</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>816</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>797</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>849</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="C63" s="19" t="s">
         <v>976</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>786</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>788</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>735</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>1043</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>976</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>1045</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>1053</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>1081</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>1183</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>1184</v>
-      </c>
       <c r="C80" s="11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>1181</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>1182</v>
-      </c>
       <c r="C81" s="11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>1178</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>1186</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>1187</v>
-      </c>
       <c r="C83" s="11" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>1062</v>
-      </c>
       <c r="C85" s="11" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -15742,27 +15738,27 @@
         <v>9</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>161</v>
@@ -15773,13 +15769,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>1065</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -15815,114 +15811,114 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>623</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>881</v>
-      </c>
       <c r="C2" s="38" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>872</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>876</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>883</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>889</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>892</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>895</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -15930,97 +15926,97 @@
         <v>48</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>897</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>900</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>903</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>906</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>908</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>907</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>910</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>913</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -16028,111 +16024,111 @@
         <v>128</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>915</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>916</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>918</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>1160</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>1161</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>921</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>924</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>927</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>1020</v>
-      </c>
       <c r="C22" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>930</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -16140,138 +16136,138 @@
         <v>351</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>932</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>935</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>939</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>941</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>942</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>944</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>1163</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>1164</v>
-      </c>
       <c r="C29" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>1165</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>1166</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="D35" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>878</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="D36" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>936</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="D37" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>937</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -16308,13 +16304,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>621</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>622</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -16325,62 +16321,62 @@
         <v>10</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>953</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="C3" s="44" t="s">
         <v>954</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>962</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>963</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
+        <v>955</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>637</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>956</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B6" s="44" t="s">
+        <v>946</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>947</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B7" s="44" t="s">
+        <v>944</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>945</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -16391,100 +16387,100 @@
         <v>129</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
+        <v>948</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>949</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="C9" s="44" t="s">
         <v>950</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B10" s="44" t="s">
+        <v>957</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>958</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
+        <v>966</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>967</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="C11" s="44" t="s">
         <v>968</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>959</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>960</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B20" s="44" t="s">
+        <v>964</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>965</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
+        <v>966</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>967</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="D21" s="44" t="s">
         <v>968</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B22" s="44" t="s">
+        <v>969</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>970</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
+        <v>971</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>972</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="D23" s="44" t="s">
         <v>973</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -16518,7 +16514,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -16527,10 +16523,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>995</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -16538,7 +16534,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>34</v>

--- a/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
+++ b/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/2025-04-heritage-resident-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348E1419F457EB2/Documents/GitHub/theo-armour-agenda/3-1-heritage/0-heritage-happenings/2025/04-april-hh/resident-directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1040" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBA64D50-F40D-47F3-AF20-70ADC28641D3}"/>
+  <xr:revisionPtr revIDLastSave="1060" documentId="8_{47523533-A004-48EF-BEEC-0FA3DE3C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A53FD7C9-5428-443F-BFB8-E910C86E3ABD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Residents" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="1193">
   <si>
     <t>First Name</t>
   </si>
@@ -3640,6 +3640,15 @@
   </si>
   <si>
     <t>ntrogman@icloud.com</t>
+  </si>
+  <si>
+    <t>Advocate</t>
+  </si>
+  <si>
+    <t>Margaret M</t>
+  </si>
+  <si>
+    <t>Nancy O</t>
   </si>
 </sst>
 </file>
@@ -4293,6 +4302,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -4495,11 +4508,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I1005"/>
+  <dimension ref="A1:J1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4509,13 +4522,13 @@
     <col min="3" max="3" width="9.15234375" style="17" customWidth="1"/>
     <col min="4" max="4" width="14.4609375" style="17" customWidth="1"/>
     <col min="5" max="5" width="13.4609375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="26.4609375" style="39" customWidth="1"/>
-    <col min="7" max="8" width="10.4609375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="7.15234375" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="11.15234375" style="17"/>
+    <col min="6" max="7" width="26.4609375" style="39" customWidth="1"/>
+    <col min="8" max="9" width="10.4609375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="7.15234375" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="11.15234375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1047</v>
       </c>
@@ -4534,17 +4547,20 @@
       <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="39" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -4563,15 +4579,15 @@
       <c r="F2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -4590,15 +4606,15 @@
       <c r="F3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
@@ -4617,15 +4633,18 @@
       <c r="F4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>777</v>
       </c>
@@ -4642,13 +4661,14 @@
       <c r="F5" s="40" t="s">
         <v>1157</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>36</v>
       </c>
@@ -4667,11 +4687,11 @@
       <c r="F6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
@@ -4690,11 +4710,11 @@
       <c r="F7" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>48</v>
       </c>
@@ -4713,12 +4733,12 @@
       <c r="F8" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="1"/>
+      <c r="J8" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>55</v>
       </c>
@@ -4737,14 +4757,14 @@
       <c r="F9" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>57</v>
       </c>
@@ -4763,15 +4783,15 @@
       <c r="F10" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>63</v>
       </c>
@@ -4790,13 +4810,13 @@
       <c r="F11" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>75</v>
       </c>
@@ -4812,14 +4832,14 @@
       <c r="E12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>80</v>
       </c>
@@ -4835,15 +4855,15 @@
       <c r="E13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
@@ -4862,15 +4882,16 @@
       <c r="F14" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="40"/>
+      <c r="H14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>91</v>
       </c>
@@ -4889,15 +4910,16 @@
       <c r="F15" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="41"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>80</v>
       </c>
@@ -4916,15 +4938,15 @@
       <c r="F16" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>100</v>
       </c>
@@ -4940,14 +4962,14 @@
       <c r="E17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="H17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>105</v>
       </c>
@@ -4966,11 +4988,11 @@
       <c r="F18" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>111</v>
       </c>
@@ -4989,14 +5011,14 @@
       <c r="F19" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>117</v>
       </c>
@@ -5015,15 +5037,15 @@
       <c r="F20" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>48</v>
       </c>
@@ -5042,15 +5064,15 @@
       <c r="F21" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3"/>
+      <c r="J21" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>988</v>
       </c>
@@ -5069,13 +5091,14 @@
       <c r="F22" s="40" t="s">
         <v>992</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>128</v>
       </c>
@@ -5091,14 +5114,14 @@
       <c r="E23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>133</v>
       </c>
@@ -5117,15 +5140,15 @@
       <c r="F24" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="1"/>
+      <c r="J24" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>136</v>
       </c>
@@ -5144,17 +5167,20 @@
       <c r="F25" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>142</v>
       </c>
@@ -5173,17 +5199,17 @@
       <c r="F26" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>148</v>
       </c>
@@ -5199,13 +5225,13 @@
       <c r="E27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3"/>
+      <c r="J27" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>153</v>
       </c>
@@ -5221,17 +5247,17 @@
       <c r="E28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>155</v>
       </c>
@@ -5250,13 +5276,13 @@
       <c r="F29" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3"/>
+      <c r="J29" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>161</v>
       </c>
@@ -5275,15 +5301,15 @@
       <c r="F30" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3"/>
+      <c r="J30" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>161</v>
       </c>
@@ -5302,15 +5328,15 @@
       <c r="F31" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3"/>
+      <c r="J31" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>171</v>
       </c>
@@ -5324,15 +5350,15 @@
         <v>173</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>175</v>
       </c>
@@ -5351,15 +5377,15 @@
       <c r="F33" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>181</v>
       </c>
@@ -5378,11 +5404,11 @@
       <c r="F34" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>187</v>
       </c>
@@ -5401,11 +5427,12 @@
       <c r="F35" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="G35" s="40"/>
+      <c r="J35" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>193</v>
       </c>
@@ -5424,11 +5451,11 @@
       <c r="F36" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>198</v>
       </c>
@@ -5447,15 +5474,15 @@
       <c r="F37" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>204</v>
       </c>
@@ -5471,14 +5498,14 @@
       <c r="E38" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>209</v>
       </c>
@@ -5494,14 +5521,14 @@
       <c r="E39" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>214</v>
       </c>
@@ -5520,11 +5547,11 @@
       <c r="F40" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>220</v>
       </c>
@@ -5543,15 +5570,18 @@
       <c r="F41" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3" t="s">
+      <c r="G41" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>223</v>
       </c>
@@ -5570,13 +5600,13 @@
       <c r="F42" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="3"/>
+      <c r="J42" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>229</v>
       </c>
@@ -5595,14 +5625,15 @@
       <c r="F43" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="40"/>
+      <c r="H43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>1022</v>
       </c>
@@ -5621,13 +5652,13 @@
       <c r="F44" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="1"/>
+      <c r="J44" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>238</v>
       </c>
@@ -5646,15 +5677,15 @@
       <c r="F45" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="1"/>
+      <c r="J45" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>243</v>
       </c>
@@ -5670,14 +5701,14 @@
       <c r="E46" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>248</v>
       </c>
@@ -5693,12 +5724,12 @@
       <c r="E47" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="I47" s="4" t="s">
+      <c r="H47" s="1"/>
+      <c r="J47" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>161</v>
       </c>
@@ -5717,11 +5748,14 @@
       <c r="F48" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="G48" s="39" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>258</v>
       </c>
@@ -5740,11 +5774,11 @@
       <c r="F49" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>263</v>
       </c>
@@ -5763,13 +5797,13 @@
       <c r="F50" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="1"/>
+      <c r="J50" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>269</v>
       </c>
@@ -5788,14 +5822,14 @@
       <c r="F51" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>274</v>
       </c>
@@ -5811,12 +5845,12 @@
       <c r="E52" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="I52" s="4" t="s">
+      <c r="H52" s="1"/>
+      <c r="J52" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>1068</v>
       </c>
@@ -5832,11 +5866,11 @@
       <c r="F53" s="39" t="s">
         <v>1072</v>
       </c>
-      <c r="I53" s="53" t="s">
+      <c r="J53" s="53" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>842</v>
       </c>
@@ -5852,11 +5886,12 @@
       <c r="F54" s="40" t="s">
         <v>1077</v>
       </c>
-      <c r="I54" s="53" t="s">
+      <c r="G54" s="40"/>
+      <c r="J54" s="53" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>171</v>
       </c>
@@ -5875,17 +5910,17 @@
       <c r="F55" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>287</v>
       </c>
@@ -5904,13 +5939,14 @@
       <c r="F56" s="49" t="s">
         <v>1046</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="49"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="1"/>
+      <c r="J56" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>290</v>
       </c>
@@ -5929,11 +5965,14 @@
       <c r="F57" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="G57" s="39" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>296</v>
       </c>
@@ -5952,11 +5991,11 @@
       <c r="F58" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>302</v>
       </c>
@@ -5972,15 +6011,15 @@
       <c r="E59" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="3"/>
+      <c r="J59" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>9</v>
       </c>
@@ -5999,14 +6038,14 @@
       <c r="F60" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>313</v>
       </c>
@@ -6022,17 +6061,17 @@
       <c r="E61" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>128</v>
       </c>
@@ -6051,13 +6090,13 @@
       <c r="F62" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="1"/>
+      <c r="J62" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>328</v>
       </c>
@@ -6076,15 +6115,15 @@
       <c r="F63" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="4" t="s">
+      <c r="I63" s="1"/>
+      <c r="J63" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
         <v>333</v>
       </c>
@@ -6103,13 +6142,13 @@
       <c r="F64" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="1"/>
+      <c r="J64" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>337</v>
       </c>
@@ -6128,14 +6167,14 @@
       <c r="F65" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>343</v>
       </c>
@@ -6154,12 +6193,12 @@
       <c r="F66" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="G66" s="1"/>
-      <c r="I66" s="4" t="s">
+      <c r="H66" s="1"/>
+      <c r="J66" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>278</v>
       </c>
@@ -6178,13 +6217,13 @@
       <c r="F67" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="1"/>
+      <c r="J67" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>351</v>
       </c>
@@ -6203,11 +6242,11 @@
       <c r="F68" s="39" t="s">
         <v>354</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
         <v>290</v>
       </c>
@@ -6226,11 +6265,12 @@
       <c r="F69" s="40" t="s">
         <v>1189</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="G69" s="40"/>
+      <c r="J69" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>359</v>
       </c>
@@ -6249,11 +6289,11 @@
       <c r="F70" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="I70" s="16" t="s">
+      <c r="J70" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>364</v>
       </c>
@@ -6269,14 +6309,14 @@
       <c r="E71" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="J71" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>369</v>
       </c>
@@ -6292,15 +6332,15 @@
       <c r="E72" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="4" t="s">
+      <c r="I72" s="1"/>
+      <c r="J72" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>374</v>
       </c>
@@ -6319,15 +6359,15 @@
       <c r="F73" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="4" t="s">
+      <c r="I73" s="1"/>
+      <c r="J73" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>381</v>
       </c>
@@ -6346,13 +6386,13 @@
       <c r="F74" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="4" t="s">
+      <c r="I74" s="1"/>
+      <c r="J74" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>100</v>
       </c>
@@ -6369,2811 +6409,2812 @@
         <v>387</v>
       </c>
       <c r="F75" s="42"/>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="42"/>
+      <c r="H75" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4" t="s">
+      <c r="I75" s="3"/>
+      <c r="J75" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I139" s="2"/>
-    </row>
-    <row r="140" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I140" s="2"/>
-    </row>
-    <row r="141" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I145" s="2"/>
-    </row>
-    <row r="146" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I146" s="2"/>
-    </row>
-    <row r="147" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I159" s="2"/>
-    </row>
-    <row r="160" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I163" s="2"/>
-    </row>
-    <row r="164" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I165" s="2"/>
-    </row>
-    <row r="166" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I166" s="2"/>
-    </row>
-    <row r="167" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I167" s="2"/>
-    </row>
-    <row r="168" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I169" s="2"/>
-    </row>
-    <row r="170" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I170" s="2"/>
-    </row>
-    <row r="171" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I171" s="2"/>
-    </row>
-    <row r="172" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I172" s="2"/>
-    </row>
-    <row r="173" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I173" s="2"/>
-    </row>
-    <row r="174" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I174" s="2"/>
-    </row>
-    <row r="175" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I175" s="2"/>
-    </row>
-    <row r="176" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I176" s="2"/>
-    </row>
-    <row r="177" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I177" s="2"/>
-    </row>
-    <row r="178" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I178" s="2"/>
-    </row>
-    <row r="179" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I179" s="2"/>
-    </row>
-    <row r="180" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I180" s="2"/>
-    </row>
-    <row r="181" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I181" s="2"/>
-    </row>
-    <row r="182" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I182" s="2"/>
-    </row>
-    <row r="183" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I183" s="2"/>
-    </row>
-    <row r="184" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I184" s="2"/>
-    </row>
-    <row r="185" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I185" s="2"/>
-    </row>
-    <row r="186" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I186" s="2"/>
-    </row>
-    <row r="187" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I187" s="2"/>
-    </row>
-    <row r="188" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I188" s="2"/>
-    </row>
-    <row r="189" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I189" s="2"/>
-    </row>
-    <row r="190" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I190" s="2"/>
-    </row>
-    <row r="191" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I191" s="2"/>
-    </row>
-    <row r="192" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I192" s="2"/>
-    </row>
-    <row r="193" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I193" s="2"/>
-    </row>
-    <row r="194" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I194" s="2"/>
-    </row>
-    <row r="195" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I195" s="2"/>
-    </row>
-    <row r="196" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I196" s="2"/>
-    </row>
-    <row r="197" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I197" s="2"/>
-    </row>
-    <row r="198" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I198" s="2"/>
-    </row>
-    <row r="199" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I199" s="2"/>
-    </row>
-    <row r="200" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I200" s="2"/>
-    </row>
-    <row r="201" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I201" s="2"/>
-    </row>
-    <row r="202" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I202" s="2"/>
-    </row>
-    <row r="203" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I203" s="2"/>
-    </row>
-    <row r="204" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I204" s="2"/>
-    </row>
-    <row r="205" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I205" s="2"/>
-    </row>
-    <row r="206" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I206" s="2"/>
-    </row>
-    <row r="207" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I207" s="2"/>
-    </row>
-    <row r="208" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I208" s="2"/>
-    </row>
-    <row r="209" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I209" s="2"/>
-    </row>
-    <row r="210" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I210" s="2"/>
-    </row>
-    <row r="211" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I211" s="2"/>
-    </row>
-    <row r="212" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I212" s="2"/>
-    </row>
-    <row r="213" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I213" s="2"/>
-    </row>
-    <row r="214" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I214" s="2"/>
-    </row>
-    <row r="215" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I215" s="2"/>
-    </row>
-    <row r="216" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I216" s="2"/>
-    </row>
-    <row r="217" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I217" s="2"/>
-    </row>
-    <row r="218" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I218" s="2"/>
-    </row>
-    <row r="219" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I219" s="2"/>
-    </row>
-    <row r="220" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I220" s="2"/>
-    </row>
-    <row r="221" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I221" s="2"/>
-    </row>
-    <row r="222" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I222" s="2"/>
-    </row>
-    <row r="223" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I223" s="2"/>
-    </row>
-    <row r="224" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I224" s="2"/>
-    </row>
-    <row r="225" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I225" s="2"/>
-    </row>
-    <row r="226" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I226" s="2"/>
-    </row>
-    <row r="227" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I227" s="2"/>
-    </row>
-    <row r="228" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I228" s="2"/>
-    </row>
-    <row r="229" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I229" s="2"/>
-    </row>
-    <row r="230" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I230" s="2"/>
-    </row>
-    <row r="231" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I231" s="2"/>
-    </row>
-    <row r="232" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I232" s="2"/>
-    </row>
-    <row r="233" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I233" s="2"/>
-    </row>
-    <row r="234" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I234" s="2"/>
-    </row>
-    <row r="235" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I235" s="2"/>
-    </row>
-    <row r="236" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I236" s="2"/>
-    </row>
-    <row r="237" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I237" s="2"/>
-    </row>
-    <row r="238" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I238" s="2"/>
-    </row>
-    <row r="239" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I239" s="2"/>
-    </row>
-    <row r="240" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I240" s="2"/>
-    </row>
-    <row r="241" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I241" s="2"/>
-    </row>
-    <row r="242" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I242" s="2"/>
-    </row>
-    <row r="243" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I243" s="2"/>
-    </row>
-    <row r="244" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I244" s="2"/>
-    </row>
-    <row r="245" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I245" s="2"/>
-    </row>
-    <row r="246" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I246" s="2"/>
-    </row>
-    <row r="247" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I247" s="2"/>
-    </row>
-    <row r="248" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I248" s="2"/>
-    </row>
-    <row r="249" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I249" s="2"/>
-    </row>
-    <row r="250" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I250" s="2"/>
-    </row>
-    <row r="251" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I251" s="2"/>
-    </row>
-    <row r="252" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I252" s="2"/>
-    </row>
-    <row r="253" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I253" s="2"/>
-    </row>
-    <row r="254" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I254" s="2"/>
-    </row>
-    <row r="255" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I255" s="2"/>
-    </row>
-    <row r="256" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I256" s="2"/>
-    </row>
-    <row r="257" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I257" s="2"/>
-    </row>
-    <row r="258" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I258" s="2"/>
-    </row>
-    <row r="259" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I259" s="2"/>
-    </row>
-    <row r="260" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I260" s="2"/>
-    </row>
-    <row r="261" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I261" s="2"/>
-    </row>
-    <row r="262" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I262" s="2"/>
-    </row>
-    <row r="263" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I263" s="2"/>
-    </row>
-    <row r="264" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I264" s="2"/>
-    </row>
-    <row r="265" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I265" s="2"/>
-    </row>
-    <row r="266" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I266" s="2"/>
-    </row>
-    <row r="267" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I267" s="2"/>
-    </row>
-    <row r="268" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I268" s="2"/>
-    </row>
-    <row r="269" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I269" s="2"/>
-    </row>
-    <row r="270" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I270" s="2"/>
-    </row>
-    <row r="271" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I271" s="2"/>
-    </row>
-    <row r="272" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I272" s="2"/>
-    </row>
-    <row r="273" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I273" s="2"/>
-    </row>
-    <row r="274" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I274" s="2"/>
-    </row>
-    <row r="275" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I275" s="2"/>
-    </row>
-    <row r="276" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I276" s="2"/>
-    </row>
-    <row r="277" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I277" s="2"/>
-    </row>
-    <row r="278" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I278" s="2"/>
-    </row>
-    <row r="279" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I279" s="2"/>
-    </row>
-    <row r="280" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I280" s="2"/>
-    </row>
-    <row r="281" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I281" s="2"/>
-    </row>
-    <row r="282" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I282" s="2"/>
-    </row>
-    <row r="283" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I283" s="2"/>
-    </row>
-    <row r="284" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I284" s="2"/>
-    </row>
-    <row r="285" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I285" s="2"/>
-    </row>
-    <row r="286" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I286" s="2"/>
-    </row>
-    <row r="287" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I287" s="2"/>
-    </row>
-    <row r="288" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I288" s="2"/>
-    </row>
-    <row r="289" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I289" s="2"/>
-    </row>
-    <row r="290" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I290" s="2"/>
-    </row>
-    <row r="291" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I291" s="2"/>
-    </row>
-    <row r="292" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I292" s="2"/>
-    </row>
-    <row r="293" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I293" s="2"/>
-    </row>
-    <row r="294" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I294" s="2"/>
-    </row>
-    <row r="295" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I295" s="2"/>
-    </row>
-    <row r="296" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I296" s="2"/>
-    </row>
-    <row r="297" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I297" s="2"/>
-    </row>
-    <row r="298" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I298" s="2"/>
-    </row>
-    <row r="299" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I299" s="2"/>
-    </row>
-    <row r="300" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I300" s="2"/>
-    </row>
-    <row r="301" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I301" s="2"/>
-    </row>
-    <row r="302" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I302" s="2"/>
-    </row>
-    <row r="303" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I303" s="2"/>
-    </row>
-    <row r="304" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I304" s="2"/>
-    </row>
-    <row r="305" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I305" s="2"/>
-    </row>
-    <row r="306" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I306" s="2"/>
-    </row>
-    <row r="307" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I307" s="2"/>
-    </row>
-    <row r="308" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I308" s="2"/>
-    </row>
-    <row r="309" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I309" s="2"/>
-    </row>
-    <row r="310" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I310" s="2"/>
-    </row>
-    <row r="311" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I311" s="2"/>
-    </row>
-    <row r="312" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I312" s="2"/>
-    </row>
-    <row r="313" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I313" s="2"/>
-    </row>
-    <row r="314" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I314" s="2"/>
-    </row>
-    <row r="315" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I315" s="2"/>
-    </row>
-    <row r="316" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I316" s="2"/>
-    </row>
-    <row r="317" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I317" s="2"/>
-    </row>
-    <row r="318" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I318" s="2"/>
-    </row>
-    <row r="319" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I319" s="2"/>
-    </row>
-    <row r="320" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I320" s="2"/>
-    </row>
-    <row r="321" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I321" s="2"/>
-    </row>
-    <row r="322" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I322" s="2"/>
-    </row>
-    <row r="323" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I323" s="2"/>
-    </row>
-    <row r="324" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I324" s="2"/>
-    </row>
-    <row r="325" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I325" s="2"/>
-    </row>
-    <row r="326" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I326" s="2"/>
-    </row>
-    <row r="327" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I327" s="2"/>
-    </row>
-    <row r="328" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I328" s="2"/>
-    </row>
-    <row r="329" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I329" s="2"/>
-    </row>
-    <row r="330" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I330" s="2"/>
-    </row>
-    <row r="331" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I331" s="2"/>
-    </row>
-    <row r="332" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I332" s="2"/>
-    </row>
-    <row r="333" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I333" s="2"/>
-    </row>
-    <row r="334" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I334" s="2"/>
-    </row>
-    <row r="335" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I335" s="2"/>
-    </row>
-    <row r="336" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I336" s="2"/>
-    </row>
-    <row r="337" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I337" s="2"/>
-    </row>
-    <row r="338" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I338" s="2"/>
-    </row>
-    <row r="339" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I339" s="2"/>
-    </row>
-    <row r="340" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I340" s="2"/>
-    </row>
-    <row r="341" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I341" s="2"/>
-    </row>
-    <row r="342" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I342" s="2"/>
-    </row>
-    <row r="343" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I343" s="2"/>
-    </row>
-    <row r="344" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I344" s="2"/>
-    </row>
-    <row r="345" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I345" s="2"/>
-    </row>
-    <row r="346" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I346" s="2"/>
-    </row>
-    <row r="347" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I347" s="2"/>
-    </row>
-    <row r="348" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I348" s="2"/>
-    </row>
-    <row r="349" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I349" s="2"/>
-    </row>
-    <row r="350" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I350" s="2"/>
-    </row>
-    <row r="351" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I351" s="2"/>
-    </row>
-    <row r="352" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I352" s="2"/>
-    </row>
-    <row r="353" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I353" s="2"/>
-    </row>
-    <row r="354" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I354" s="2"/>
-    </row>
-    <row r="355" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I355" s="2"/>
-    </row>
-    <row r="356" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I356" s="2"/>
-    </row>
-    <row r="357" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I357" s="2"/>
-    </row>
-    <row r="358" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I358" s="2"/>
-    </row>
-    <row r="359" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I359" s="2"/>
-    </row>
-    <row r="360" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I360" s="2"/>
-    </row>
-    <row r="361" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I361" s="2"/>
-    </row>
-    <row r="362" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I362" s="2"/>
-    </row>
-    <row r="363" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I363" s="2"/>
-    </row>
-    <row r="364" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I364" s="2"/>
-    </row>
-    <row r="365" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I365" s="2"/>
-    </row>
-    <row r="366" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I366" s="2"/>
-    </row>
-    <row r="367" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I367" s="2"/>
-    </row>
-    <row r="368" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I368" s="2"/>
-    </row>
-    <row r="369" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I369" s="2"/>
-    </row>
-    <row r="370" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I370" s="2"/>
-    </row>
-    <row r="371" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I371" s="2"/>
-    </row>
-    <row r="372" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I372" s="2"/>
-    </row>
-    <row r="373" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I373" s="2"/>
-    </row>
-    <row r="374" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I374" s="2"/>
-    </row>
-    <row r="375" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I375" s="2"/>
-    </row>
-    <row r="376" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I376" s="2"/>
-    </row>
-    <row r="377" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I377" s="2"/>
-    </row>
-    <row r="378" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I378" s="2"/>
-    </row>
-    <row r="379" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I379" s="2"/>
-    </row>
-    <row r="380" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I380" s="2"/>
-    </row>
-    <row r="381" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I381" s="2"/>
-    </row>
-    <row r="382" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I382" s="2"/>
-    </row>
-    <row r="383" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I383" s="2"/>
-    </row>
-    <row r="384" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I384" s="2"/>
-    </row>
-    <row r="385" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I385" s="2"/>
-    </row>
-    <row r="386" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I386" s="2"/>
-    </row>
-    <row r="387" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I387" s="2"/>
-    </row>
-    <row r="388" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I388" s="2"/>
-    </row>
-    <row r="389" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I389" s="2"/>
-    </row>
-    <row r="390" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I390" s="2"/>
-    </row>
-    <row r="391" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I391" s="2"/>
-    </row>
-    <row r="392" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I392" s="2"/>
-    </row>
-    <row r="393" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I393" s="2"/>
-    </row>
-    <row r="394" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I394" s="2"/>
-    </row>
-    <row r="395" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I395" s="2"/>
-    </row>
-    <row r="396" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I396" s="2"/>
-    </row>
-    <row r="397" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I397" s="2"/>
-    </row>
-    <row r="398" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I398" s="2"/>
-    </row>
-    <row r="399" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I399" s="2"/>
-    </row>
-    <row r="400" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I400" s="2"/>
-    </row>
-    <row r="401" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I401" s="2"/>
-    </row>
-    <row r="402" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I402" s="2"/>
-    </row>
-    <row r="403" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I403" s="2"/>
-    </row>
-    <row r="404" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I404" s="2"/>
-    </row>
-    <row r="405" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I405" s="2"/>
-    </row>
-    <row r="406" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I406" s="2"/>
-    </row>
-    <row r="407" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I407" s="2"/>
-    </row>
-    <row r="408" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I408" s="2"/>
-    </row>
-    <row r="409" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I409" s="2"/>
-    </row>
-    <row r="410" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I410" s="2"/>
-    </row>
-    <row r="411" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I411" s="2"/>
-    </row>
-    <row r="412" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I412" s="2"/>
-    </row>
-    <row r="413" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I413" s="2"/>
-    </row>
-    <row r="414" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I414" s="2"/>
-    </row>
-    <row r="415" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I415" s="2"/>
-    </row>
-    <row r="416" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I416" s="2"/>
-    </row>
-    <row r="417" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I417" s="2"/>
-    </row>
-    <row r="418" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I418" s="2"/>
-    </row>
-    <row r="419" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I419" s="2"/>
-    </row>
-    <row r="420" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I420" s="2"/>
-    </row>
-    <row r="421" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I421" s="2"/>
-    </row>
-    <row r="422" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I422" s="2"/>
-    </row>
-    <row r="423" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I423" s="2"/>
-    </row>
-    <row r="424" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I424" s="2"/>
-    </row>
-    <row r="425" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I425" s="2"/>
-    </row>
-    <row r="426" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I426" s="2"/>
-    </row>
-    <row r="427" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I427" s="2"/>
-    </row>
-    <row r="428" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I428" s="2"/>
-    </row>
-    <row r="429" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I429" s="2"/>
-    </row>
-    <row r="430" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I430" s="2"/>
-    </row>
-    <row r="431" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I431" s="2"/>
-    </row>
-    <row r="432" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I432" s="2"/>
-    </row>
-    <row r="433" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I433" s="2"/>
-    </row>
-    <row r="434" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I434" s="2"/>
-    </row>
-    <row r="435" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I435" s="2"/>
-    </row>
-    <row r="436" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I436" s="2"/>
-    </row>
-    <row r="437" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I437" s="2"/>
-    </row>
-    <row r="438" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I438" s="2"/>
-    </row>
-    <row r="439" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I439" s="2"/>
-    </row>
-    <row r="440" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I440" s="2"/>
-    </row>
-    <row r="441" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I441" s="2"/>
-    </row>
-    <row r="442" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I442" s="2"/>
-    </row>
-    <row r="443" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I443" s="2"/>
-    </row>
-    <row r="444" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I444" s="2"/>
-    </row>
-    <row r="445" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I445" s="2"/>
-    </row>
-    <row r="446" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I446" s="2"/>
-    </row>
-    <row r="447" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I447" s="2"/>
-    </row>
-    <row r="448" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I448" s="2"/>
-    </row>
-    <row r="449" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I449" s="2"/>
-    </row>
-    <row r="450" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I450" s="2"/>
-    </row>
-    <row r="451" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I451" s="2"/>
-    </row>
-    <row r="452" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I452" s="2"/>
-    </row>
-    <row r="453" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I453" s="2"/>
-    </row>
-    <row r="454" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I454" s="2"/>
-    </row>
-    <row r="455" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I455" s="2"/>
-    </row>
-    <row r="456" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I456" s="2"/>
-    </row>
-    <row r="457" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I457" s="2"/>
-    </row>
-    <row r="458" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I458" s="2"/>
-    </row>
-    <row r="459" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I459" s="2"/>
-    </row>
-    <row r="460" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I460" s="2"/>
-    </row>
-    <row r="461" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I461" s="2"/>
-    </row>
-    <row r="462" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I462" s="2"/>
-    </row>
-    <row r="463" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I463" s="2"/>
-    </row>
-    <row r="464" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I464" s="2"/>
-    </row>
-    <row r="465" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I465" s="2"/>
-    </row>
-    <row r="466" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I466" s="2"/>
-    </row>
-    <row r="467" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I467" s="2"/>
-    </row>
-    <row r="468" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I468" s="2"/>
-    </row>
-    <row r="469" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I469" s="2"/>
-    </row>
-    <row r="470" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I470" s="2"/>
-    </row>
-    <row r="471" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I471" s="2"/>
-    </row>
-    <row r="472" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I472" s="2"/>
-    </row>
-    <row r="473" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I473" s="2"/>
-    </row>
-    <row r="474" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I474" s="2"/>
-    </row>
-    <row r="475" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I475" s="2"/>
-    </row>
-    <row r="476" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I476" s="2"/>
-    </row>
-    <row r="477" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I477" s="2"/>
-    </row>
-    <row r="478" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I478" s="2"/>
-    </row>
-    <row r="479" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I479" s="2"/>
-    </row>
-    <row r="480" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I480" s="2"/>
-    </row>
-    <row r="481" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I481" s="2"/>
-    </row>
-    <row r="482" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I482" s="2"/>
-    </row>
-    <row r="483" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I483" s="2"/>
-    </row>
-    <row r="484" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I484" s="2"/>
-    </row>
-    <row r="485" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I485" s="2"/>
-    </row>
-    <row r="486" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I486" s="2"/>
-    </row>
-    <row r="487" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I487" s="2"/>
-    </row>
-    <row r="488" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I488" s="2"/>
-    </row>
-    <row r="489" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I489" s="2"/>
-    </row>
-    <row r="490" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I490" s="2"/>
-    </row>
-    <row r="491" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I491" s="2"/>
-    </row>
-    <row r="492" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I492" s="2"/>
-    </row>
-    <row r="493" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I493" s="2"/>
-    </row>
-    <row r="494" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I494" s="2"/>
-    </row>
-    <row r="495" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I495" s="2"/>
-    </row>
-    <row r="496" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I496" s="2"/>
-    </row>
-    <row r="497" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I497" s="2"/>
-    </row>
-    <row r="498" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I498" s="2"/>
-    </row>
-    <row r="499" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I499" s="2"/>
-    </row>
-    <row r="500" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I500" s="2"/>
-    </row>
-    <row r="501" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I501" s="2"/>
-    </row>
-    <row r="502" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I502" s="2"/>
-    </row>
-    <row r="503" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I503" s="2"/>
-    </row>
-    <row r="504" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I504" s="2"/>
-    </row>
-    <row r="505" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I505" s="2"/>
-    </row>
-    <row r="506" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I506" s="2"/>
-    </row>
-    <row r="507" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I507" s="2"/>
-    </row>
-    <row r="508" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I508" s="2"/>
-    </row>
-    <row r="509" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I509" s="2"/>
-    </row>
-    <row r="510" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I510" s="2"/>
-    </row>
-    <row r="511" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I511" s="2"/>
-    </row>
-    <row r="512" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I512" s="2"/>
-    </row>
-    <row r="513" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I513" s="2"/>
-    </row>
-    <row r="514" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I514" s="2"/>
-    </row>
-    <row r="515" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I515" s="2"/>
-    </row>
-    <row r="516" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I516" s="2"/>
-    </row>
-    <row r="517" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I517" s="2"/>
-    </row>
-    <row r="518" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I518" s="2"/>
-    </row>
-    <row r="519" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I519" s="2"/>
-    </row>
-    <row r="520" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I520" s="2"/>
-    </row>
-    <row r="521" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I521" s="2"/>
-    </row>
-    <row r="522" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I522" s="2"/>
-    </row>
-    <row r="523" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I523" s="2"/>
-    </row>
-    <row r="524" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I524" s="2"/>
-    </row>
-    <row r="525" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I525" s="2"/>
-    </row>
-    <row r="526" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I526" s="2"/>
-    </row>
-    <row r="527" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I527" s="2"/>
-    </row>
-    <row r="528" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I528" s="2"/>
-    </row>
-    <row r="529" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I529" s="2"/>
-    </row>
-    <row r="530" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I530" s="2"/>
-    </row>
-    <row r="531" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I531" s="2"/>
-    </row>
-    <row r="532" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I532" s="2"/>
-    </row>
-    <row r="533" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I533" s="2"/>
-    </row>
-    <row r="534" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I534" s="2"/>
-    </row>
-    <row r="535" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I535" s="2"/>
-    </row>
-    <row r="536" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I536" s="2"/>
-    </row>
-    <row r="537" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I537" s="2"/>
-    </row>
-    <row r="538" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I538" s="2"/>
-    </row>
-    <row r="539" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I539" s="2"/>
-    </row>
-    <row r="540" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I540" s="2"/>
-    </row>
-    <row r="541" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I541" s="2"/>
-    </row>
-    <row r="542" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I542" s="2"/>
-    </row>
-    <row r="543" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I543" s="2"/>
-    </row>
-    <row r="544" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I544" s="2"/>
-    </row>
-    <row r="545" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I545" s="2"/>
-    </row>
-    <row r="546" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I546" s="2"/>
-    </row>
-    <row r="547" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I547" s="2"/>
-    </row>
-    <row r="548" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I548" s="2"/>
-    </row>
-    <row r="549" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I549" s="2"/>
-    </row>
-    <row r="550" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I550" s="2"/>
-    </row>
-    <row r="551" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I551" s="2"/>
-    </row>
-    <row r="552" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I552" s="2"/>
-    </row>
-    <row r="553" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I553" s="2"/>
-    </row>
-    <row r="554" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I554" s="2"/>
-    </row>
-    <row r="555" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I555" s="2"/>
-    </row>
-    <row r="556" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I556" s="2"/>
-    </row>
-    <row r="557" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I557" s="2"/>
-    </row>
-    <row r="558" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I558" s="2"/>
-    </row>
-    <row r="559" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I559" s="2"/>
-    </row>
-    <row r="560" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I560" s="2"/>
-    </row>
-    <row r="561" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I561" s="2"/>
-    </row>
-    <row r="562" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I562" s="2"/>
-    </row>
-    <row r="563" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I563" s="2"/>
-    </row>
-    <row r="564" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I564" s="2"/>
-    </row>
-    <row r="565" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I565" s="2"/>
-    </row>
-    <row r="566" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I566" s="2"/>
-    </row>
-    <row r="567" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I567" s="2"/>
-    </row>
-    <row r="568" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I568" s="2"/>
-    </row>
-    <row r="569" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I569" s="2"/>
-    </row>
-    <row r="570" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I570" s="2"/>
-    </row>
-    <row r="571" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I571" s="2"/>
-    </row>
-    <row r="572" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I572" s="2"/>
-    </row>
-    <row r="573" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I573" s="2"/>
-    </row>
-    <row r="574" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I574" s="2"/>
-    </row>
-    <row r="575" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I575" s="2"/>
-    </row>
-    <row r="576" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I576" s="2"/>
-    </row>
-    <row r="577" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I577" s="2"/>
-    </row>
-    <row r="578" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I578" s="2"/>
-    </row>
-    <row r="579" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I579" s="2"/>
-    </row>
-    <row r="580" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I580" s="2"/>
-    </row>
-    <row r="581" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I581" s="2"/>
-    </row>
-    <row r="582" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I582" s="2"/>
-    </row>
-    <row r="583" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I583" s="2"/>
-    </row>
-    <row r="584" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I584" s="2"/>
-    </row>
-    <row r="585" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I585" s="2"/>
-    </row>
-    <row r="586" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I586" s="2"/>
-    </row>
-    <row r="587" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I587" s="2"/>
-    </row>
-    <row r="588" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I588" s="2"/>
-    </row>
-    <row r="589" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I589" s="2"/>
-    </row>
-    <row r="590" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I590" s="2"/>
-    </row>
-    <row r="591" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I591" s="2"/>
-    </row>
-    <row r="592" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I592" s="2"/>
-    </row>
-    <row r="593" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I593" s="2"/>
-    </row>
-    <row r="594" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I594" s="2"/>
-    </row>
-    <row r="595" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I595" s="2"/>
-    </row>
-    <row r="596" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I596" s="2"/>
-    </row>
-    <row r="597" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I597" s="2"/>
-    </row>
-    <row r="598" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I598" s="2"/>
-    </row>
-    <row r="599" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I599" s="2"/>
-    </row>
-    <row r="600" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I600" s="2"/>
-    </row>
-    <row r="601" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I601" s="2"/>
-    </row>
-    <row r="602" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I602" s="2"/>
-    </row>
-    <row r="603" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I603" s="2"/>
-    </row>
-    <row r="604" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I604" s="2"/>
-    </row>
-    <row r="605" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I605" s="2"/>
-    </row>
-    <row r="606" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I606" s="2"/>
-    </row>
-    <row r="607" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I607" s="2"/>
-    </row>
-    <row r="608" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I608" s="2"/>
-    </row>
-    <row r="609" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I609" s="2"/>
-    </row>
-    <row r="610" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I610" s="2"/>
-    </row>
-    <row r="611" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I611" s="2"/>
-    </row>
-    <row r="612" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I612" s="2"/>
-    </row>
-    <row r="613" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I613" s="2"/>
-    </row>
-    <row r="614" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I614" s="2"/>
-    </row>
-    <row r="615" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I615" s="2"/>
-    </row>
-    <row r="616" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I616" s="2"/>
-    </row>
-    <row r="617" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I617" s="2"/>
-    </row>
-    <row r="618" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I618" s="2"/>
-    </row>
-    <row r="619" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I619" s="2"/>
-    </row>
-    <row r="620" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I620" s="2"/>
-    </row>
-    <row r="621" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I621" s="2"/>
-    </row>
-    <row r="622" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I622" s="2"/>
-    </row>
-    <row r="623" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I623" s="2"/>
-    </row>
-    <row r="624" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I624" s="2"/>
-    </row>
-    <row r="625" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I625" s="2"/>
-    </row>
-    <row r="626" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I626" s="2"/>
-    </row>
-    <row r="627" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I627" s="2"/>
-    </row>
-    <row r="628" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I628" s="2"/>
-    </row>
-    <row r="629" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I629" s="2"/>
-    </row>
-    <row r="630" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I630" s="2"/>
-    </row>
-    <row r="631" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I631" s="2"/>
-    </row>
-    <row r="632" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I632" s="2"/>
-    </row>
-    <row r="633" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I633" s="2"/>
-    </row>
-    <row r="634" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I634" s="2"/>
-    </row>
-    <row r="635" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I635" s="2"/>
-    </row>
-    <row r="636" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I636" s="2"/>
-    </row>
-    <row r="637" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I637" s="2"/>
-    </row>
-    <row r="638" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I638" s="2"/>
-    </row>
-    <row r="639" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I639" s="2"/>
-    </row>
-    <row r="640" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I640" s="2"/>
-    </row>
-    <row r="641" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I641" s="2"/>
-    </row>
-    <row r="642" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I642" s="2"/>
-    </row>
-    <row r="643" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I643" s="2"/>
-    </row>
-    <row r="644" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I644" s="2"/>
-    </row>
-    <row r="645" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I645" s="2"/>
-    </row>
-    <row r="646" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I646" s="2"/>
-    </row>
-    <row r="647" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I647" s="2"/>
-    </row>
-    <row r="648" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I648" s="2"/>
-    </row>
-    <row r="649" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I649" s="2"/>
-    </row>
-    <row r="650" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I650" s="2"/>
-    </row>
-    <row r="651" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I651" s="2"/>
-    </row>
-    <row r="652" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I652" s="2"/>
-    </row>
-    <row r="653" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I653" s="2"/>
-    </row>
-    <row r="654" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I654" s="2"/>
-    </row>
-    <row r="655" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I655" s="2"/>
-    </row>
-    <row r="656" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I656" s="2"/>
-    </row>
-    <row r="657" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I657" s="2"/>
-    </row>
-    <row r="658" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I658" s="2"/>
-    </row>
-    <row r="659" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I659" s="2"/>
-    </row>
-    <row r="660" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I660" s="2"/>
-    </row>
-    <row r="661" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I661" s="2"/>
-    </row>
-    <row r="662" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I662" s="2"/>
-    </row>
-    <row r="663" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I663" s="2"/>
-    </row>
-    <row r="664" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I664" s="2"/>
-    </row>
-    <row r="665" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I665" s="2"/>
-    </row>
-    <row r="666" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I666" s="2"/>
-    </row>
-    <row r="667" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I667" s="2"/>
-    </row>
-    <row r="668" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I668" s="2"/>
-    </row>
-    <row r="669" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I669" s="2"/>
-    </row>
-    <row r="670" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I670" s="2"/>
-    </row>
-    <row r="671" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I671" s="2"/>
-    </row>
-    <row r="672" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I672" s="2"/>
-    </row>
-    <row r="673" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I673" s="2"/>
-    </row>
-    <row r="674" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I674" s="2"/>
-    </row>
-    <row r="675" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I675" s="2"/>
-    </row>
-    <row r="676" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I676" s="2"/>
-    </row>
-    <row r="677" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I677" s="2"/>
-    </row>
-    <row r="678" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I678" s="2"/>
-    </row>
-    <row r="679" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I679" s="2"/>
-    </row>
-    <row r="680" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I680" s="2"/>
-    </row>
-    <row r="681" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I681" s="2"/>
-    </row>
-    <row r="682" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I682" s="2"/>
-    </row>
-    <row r="683" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I683" s="2"/>
-    </row>
-    <row r="684" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I684" s="2"/>
-    </row>
-    <row r="685" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I685" s="2"/>
-    </row>
-    <row r="686" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I686" s="2"/>
-    </row>
-    <row r="687" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I687" s="2"/>
-    </row>
-    <row r="688" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I688" s="2"/>
-    </row>
-    <row r="689" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I689" s="2"/>
-    </row>
-    <row r="690" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I690" s="2"/>
-    </row>
-    <row r="691" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I691" s="2"/>
-    </row>
-    <row r="692" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I692" s="2"/>
-    </row>
-    <row r="693" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I693" s="2"/>
-    </row>
-    <row r="694" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I694" s="2"/>
-    </row>
-    <row r="695" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I695" s="2"/>
-    </row>
-    <row r="696" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I696" s="2"/>
-    </row>
-    <row r="697" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I697" s="2"/>
-    </row>
-    <row r="698" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I698" s="2"/>
-    </row>
-    <row r="699" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I699" s="2"/>
-    </row>
-    <row r="700" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I700" s="2"/>
-    </row>
-    <row r="701" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I701" s="2"/>
-    </row>
-    <row r="702" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I702" s="2"/>
-    </row>
-    <row r="703" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I703" s="2"/>
-    </row>
-    <row r="704" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I704" s="2"/>
-    </row>
-    <row r="705" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I705" s="2"/>
-    </row>
-    <row r="706" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I706" s="2"/>
-    </row>
-    <row r="707" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I707" s="2"/>
-    </row>
-    <row r="708" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I708" s="2"/>
-    </row>
-    <row r="709" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I709" s="2"/>
-    </row>
-    <row r="710" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I710" s="2"/>
-    </row>
-    <row r="711" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I711" s="2"/>
-    </row>
-    <row r="712" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I712" s="2"/>
-    </row>
-    <row r="713" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I713" s="2"/>
-    </row>
-    <row r="714" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I714" s="2"/>
-    </row>
-    <row r="715" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I715" s="2"/>
-    </row>
-    <row r="716" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I716" s="2"/>
-    </row>
-    <row r="717" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I717" s="2"/>
-    </row>
-    <row r="718" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I718" s="2"/>
-    </row>
-    <row r="719" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I719" s="2"/>
-    </row>
-    <row r="720" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I720" s="2"/>
-    </row>
-    <row r="721" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I721" s="2"/>
-    </row>
-    <row r="722" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I722" s="2"/>
-    </row>
-    <row r="723" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I723" s="2"/>
-    </row>
-    <row r="724" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I724" s="2"/>
-    </row>
-    <row r="725" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I725" s="2"/>
-    </row>
-    <row r="726" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I726" s="2"/>
-    </row>
-    <row r="727" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I727" s="2"/>
-    </row>
-    <row r="728" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I728" s="2"/>
-    </row>
-    <row r="729" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I729" s="2"/>
-    </row>
-    <row r="730" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I730" s="2"/>
-    </row>
-    <row r="731" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I731" s="2"/>
-    </row>
-    <row r="732" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I732" s="2"/>
-    </row>
-    <row r="733" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I733" s="2"/>
-    </row>
-    <row r="734" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I734" s="2"/>
-    </row>
-    <row r="735" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I735" s="2"/>
-    </row>
-    <row r="736" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I736" s="2"/>
-    </row>
-    <row r="737" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I737" s="2"/>
-    </row>
-    <row r="738" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I738" s="2"/>
-    </row>
-    <row r="739" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I739" s="2"/>
-    </row>
-    <row r="740" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I740" s="2"/>
-    </row>
-    <row r="741" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I741" s="2"/>
-    </row>
-    <row r="742" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I742" s="2"/>
-    </row>
-    <row r="743" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I743" s="2"/>
-    </row>
-    <row r="744" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I744" s="2"/>
-    </row>
-    <row r="745" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I745" s="2"/>
-    </row>
-    <row r="746" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I746" s="2"/>
-    </row>
-    <row r="747" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I747" s="2"/>
-    </row>
-    <row r="748" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I748" s="2"/>
-    </row>
-    <row r="749" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I749" s="2"/>
-    </row>
-    <row r="750" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I750" s="2"/>
-    </row>
-    <row r="751" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I751" s="2"/>
-    </row>
-    <row r="752" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I752" s="2"/>
-    </row>
-    <row r="753" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I753" s="2"/>
-    </row>
-    <row r="754" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I754" s="2"/>
-    </row>
-    <row r="755" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I755" s="2"/>
-    </row>
-    <row r="756" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I756" s="2"/>
-    </row>
-    <row r="757" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I757" s="2"/>
-    </row>
-    <row r="758" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I758" s="2"/>
-    </row>
-    <row r="759" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I759" s="2"/>
-    </row>
-    <row r="760" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I760" s="2"/>
-    </row>
-    <row r="761" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I761" s="2"/>
-    </row>
-    <row r="762" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I762" s="2"/>
-    </row>
-    <row r="763" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I763" s="2"/>
-    </row>
-    <row r="764" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I764" s="2"/>
-    </row>
-    <row r="765" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I765" s="2"/>
-    </row>
-    <row r="766" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I766" s="2"/>
-    </row>
-    <row r="767" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I767" s="2"/>
-    </row>
-    <row r="768" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I768" s="2"/>
-    </row>
-    <row r="769" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I769" s="2"/>
-    </row>
-    <row r="770" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I770" s="2"/>
-    </row>
-    <row r="771" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I771" s="2"/>
-    </row>
-    <row r="772" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I772" s="2"/>
-    </row>
-    <row r="773" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I773" s="2"/>
-    </row>
-    <row r="774" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I774" s="2"/>
-    </row>
-    <row r="775" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I775" s="2"/>
-    </row>
-    <row r="776" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I776" s="2"/>
-    </row>
-    <row r="777" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I777" s="2"/>
-    </row>
-    <row r="778" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I778" s="2"/>
-    </row>
-    <row r="779" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I779" s="2"/>
-    </row>
-    <row r="780" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I780" s="2"/>
-    </row>
-    <row r="781" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I781" s="2"/>
-    </row>
-    <row r="782" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I782" s="2"/>
-    </row>
-    <row r="783" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I783" s="2"/>
-    </row>
-    <row r="784" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I784" s="2"/>
-    </row>
-    <row r="785" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I785" s="2"/>
-    </row>
-    <row r="786" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I786" s="2"/>
-    </row>
-    <row r="787" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I787" s="2"/>
-    </row>
-    <row r="788" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I788" s="2"/>
-    </row>
-    <row r="789" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I789" s="2"/>
-    </row>
-    <row r="790" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I790" s="2"/>
-    </row>
-    <row r="791" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I791" s="2"/>
-    </row>
-    <row r="792" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I792" s="2"/>
-    </row>
-    <row r="793" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I793" s="2"/>
-    </row>
-    <row r="794" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I794" s="2"/>
-    </row>
-    <row r="795" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I795" s="2"/>
-    </row>
-    <row r="796" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I796" s="2"/>
-    </row>
-    <row r="797" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I797" s="2"/>
-    </row>
-    <row r="798" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I798" s="2"/>
-    </row>
-    <row r="799" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I799" s="2"/>
-    </row>
-    <row r="800" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I800" s="2"/>
-    </row>
-    <row r="801" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I801" s="2"/>
-    </row>
-    <row r="802" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I802" s="2"/>
-    </row>
-    <row r="803" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I803" s="2"/>
-    </row>
-    <row r="804" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I804" s="2"/>
-    </row>
-    <row r="805" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I805" s="2"/>
-    </row>
-    <row r="806" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I806" s="2"/>
-    </row>
-    <row r="807" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I807" s="2"/>
-    </row>
-    <row r="808" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I808" s="2"/>
-    </row>
-    <row r="809" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I809" s="2"/>
-    </row>
-    <row r="810" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I810" s="2"/>
-    </row>
-    <row r="811" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I811" s="2"/>
-    </row>
-    <row r="812" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I812" s="2"/>
-    </row>
-    <row r="813" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I813" s="2"/>
-    </row>
-    <row r="814" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I814" s="2"/>
-    </row>
-    <row r="815" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I815" s="2"/>
-    </row>
-    <row r="816" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I816" s="2"/>
-    </row>
-    <row r="817" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I817" s="2"/>
-    </row>
-    <row r="818" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I818" s="2"/>
-    </row>
-    <row r="819" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I819" s="2"/>
-    </row>
-    <row r="820" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I820" s="2"/>
-    </row>
-    <row r="821" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I821" s="2"/>
-    </row>
-    <row r="822" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I822" s="2"/>
-    </row>
-    <row r="823" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I823" s="2"/>
-    </row>
-    <row r="824" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I824" s="2"/>
-    </row>
-    <row r="825" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I825" s="2"/>
-    </row>
-    <row r="826" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I826" s="2"/>
-    </row>
-    <row r="827" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I827" s="2"/>
-    </row>
-    <row r="828" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I828" s="2"/>
-    </row>
-    <row r="829" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I829" s="2"/>
-    </row>
-    <row r="830" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I830" s="2"/>
-    </row>
-    <row r="831" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I831" s="2"/>
-    </row>
-    <row r="832" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I832" s="2"/>
-    </row>
-    <row r="833" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I833" s="2"/>
-    </row>
-    <row r="834" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I834" s="2"/>
-    </row>
-    <row r="835" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I835" s="2"/>
-    </row>
-    <row r="836" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I836" s="2"/>
-    </row>
-    <row r="837" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I837" s="2"/>
-    </row>
-    <row r="838" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I838" s="2"/>
-    </row>
-    <row r="839" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I839" s="2"/>
-    </row>
-    <row r="840" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I840" s="2"/>
-    </row>
-    <row r="841" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I841" s="2"/>
-    </row>
-    <row r="842" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I842" s="2"/>
-    </row>
-    <row r="843" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I843" s="2"/>
-    </row>
-    <row r="844" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I844" s="2"/>
-    </row>
-    <row r="845" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I845" s="2"/>
-    </row>
-    <row r="846" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I846" s="2"/>
-    </row>
-    <row r="847" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I847" s="2"/>
-    </row>
-    <row r="848" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I848" s="2"/>
-    </row>
-    <row r="849" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I849" s="2"/>
-    </row>
-    <row r="850" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I850" s="2"/>
-    </row>
-    <row r="851" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I851" s="2"/>
-    </row>
-    <row r="852" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I852" s="2"/>
-    </row>
-    <row r="853" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I853" s="2"/>
-    </row>
-    <row r="854" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I854" s="2"/>
-    </row>
-    <row r="855" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I855" s="2"/>
-    </row>
-    <row r="856" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I856" s="2"/>
-    </row>
-    <row r="857" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I857" s="2"/>
-    </row>
-    <row r="858" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I858" s="2"/>
-    </row>
-    <row r="859" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I859" s="2"/>
-    </row>
-    <row r="860" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I860" s="2"/>
-    </row>
-    <row r="861" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I861" s="2"/>
-    </row>
-    <row r="862" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I862" s="2"/>
-    </row>
-    <row r="863" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I863" s="2"/>
-    </row>
-    <row r="864" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I864" s="2"/>
-    </row>
-    <row r="865" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I865" s="2"/>
-    </row>
-    <row r="866" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I866" s="2"/>
-    </row>
-    <row r="867" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I867" s="2"/>
-    </row>
-    <row r="868" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I868" s="2"/>
-    </row>
-    <row r="869" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I869" s="2"/>
-    </row>
-    <row r="870" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I870" s="2"/>
-    </row>
-    <row r="871" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I871" s="2"/>
-    </row>
-    <row r="872" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I872" s="2"/>
-    </row>
-    <row r="873" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I873" s="2"/>
-    </row>
-    <row r="874" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I874" s="2"/>
-    </row>
-    <row r="875" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I875" s="2"/>
-    </row>
-    <row r="876" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I876" s="2"/>
-    </row>
-    <row r="877" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I877" s="2"/>
-    </row>
-    <row r="878" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I878" s="2"/>
-    </row>
-    <row r="879" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I879" s="2"/>
-    </row>
-    <row r="880" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I880" s="2"/>
-    </row>
-    <row r="881" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I881" s="2"/>
-    </row>
-    <row r="882" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I882" s="2"/>
-    </row>
-    <row r="883" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I883" s="2"/>
-    </row>
-    <row r="884" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I884" s="2"/>
-    </row>
-    <row r="885" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I885" s="2"/>
-    </row>
-    <row r="886" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I886" s="2"/>
-    </row>
-    <row r="887" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I887" s="2"/>
-    </row>
-    <row r="888" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I888" s="2"/>
-    </row>
-    <row r="889" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I889" s="2"/>
-    </row>
-    <row r="890" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I890" s="2"/>
-    </row>
-    <row r="891" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I891" s="2"/>
-    </row>
-    <row r="892" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I892" s="2"/>
-    </row>
-    <row r="893" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I893" s="2"/>
-    </row>
-    <row r="894" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I894" s="2"/>
-    </row>
-    <row r="895" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I895" s="2"/>
-    </row>
-    <row r="896" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I896" s="2"/>
-    </row>
-    <row r="897" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I897" s="2"/>
-    </row>
-    <row r="898" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I898" s="2"/>
-    </row>
-    <row r="899" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I899" s="2"/>
-    </row>
-    <row r="900" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I900" s="2"/>
-    </row>
-    <row r="901" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I901" s="2"/>
-    </row>
-    <row r="902" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I902" s="2"/>
-    </row>
-    <row r="903" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I903" s="2"/>
-    </row>
-    <row r="904" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I904" s="2"/>
-    </row>
-    <row r="905" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I905" s="2"/>
-    </row>
-    <row r="906" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I906" s="2"/>
-    </row>
-    <row r="907" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I907" s="2"/>
-    </row>
-    <row r="908" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I908" s="2"/>
-    </row>
-    <row r="909" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I909" s="2"/>
-    </row>
-    <row r="910" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I910" s="2"/>
-    </row>
-    <row r="911" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I911" s="2"/>
-    </row>
-    <row r="912" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I912" s="2"/>
-    </row>
-    <row r="913" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I913" s="2"/>
-    </row>
-    <row r="914" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I914" s="2"/>
-    </row>
-    <row r="915" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I915" s="2"/>
-    </row>
-    <row r="916" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I916" s="2"/>
-    </row>
-    <row r="917" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I917" s="2"/>
-    </row>
-    <row r="918" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I918" s="2"/>
-    </row>
-    <row r="919" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I919" s="2"/>
-    </row>
-    <row r="920" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I920" s="2"/>
-    </row>
-    <row r="921" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I921" s="2"/>
-    </row>
-    <row r="922" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I922" s="2"/>
-    </row>
-    <row r="923" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I923" s="2"/>
-    </row>
-    <row r="924" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I924" s="2"/>
-    </row>
-    <row r="925" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I925" s="2"/>
-    </row>
-    <row r="926" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I926" s="2"/>
-    </row>
-    <row r="927" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I927" s="2"/>
-    </row>
-    <row r="928" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I928" s="2"/>
-    </row>
-    <row r="929" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I929" s="2"/>
-    </row>
-    <row r="930" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I930" s="2"/>
-    </row>
-    <row r="931" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I931" s="2"/>
-    </row>
-    <row r="932" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I932" s="2"/>
-    </row>
-    <row r="933" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I933" s="2"/>
-    </row>
-    <row r="934" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I934" s="2"/>
-    </row>
-    <row r="935" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I935" s="2"/>
-    </row>
-    <row r="936" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I936" s="2"/>
-    </row>
-    <row r="937" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I937" s="2"/>
-    </row>
-    <row r="938" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I938" s="2"/>
-    </row>
-    <row r="939" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I939" s="2"/>
-    </row>
-    <row r="940" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I940" s="2"/>
-    </row>
-    <row r="941" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I941" s="2"/>
-    </row>
-    <row r="942" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I942" s="2"/>
-    </row>
-    <row r="943" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I943" s="2"/>
-    </row>
-    <row r="944" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I944" s="2"/>
-    </row>
-    <row r="945" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I945" s="2"/>
-    </row>
-    <row r="946" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I946" s="2"/>
-    </row>
-    <row r="947" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I947" s="2"/>
-    </row>
-    <row r="948" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I948" s="2"/>
-    </row>
-    <row r="949" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I949" s="2"/>
-    </row>
-    <row r="950" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I950" s="2"/>
-    </row>
-    <row r="951" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I951" s="2"/>
-    </row>
-    <row r="952" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I952" s="2"/>
-    </row>
-    <row r="953" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I953" s="2"/>
-    </row>
-    <row r="954" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I954" s="2"/>
-    </row>
-    <row r="955" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I955" s="2"/>
-    </row>
-    <row r="956" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I956" s="2"/>
-    </row>
-    <row r="957" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I957" s="2"/>
-    </row>
-    <row r="958" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I958" s="2"/>
-    </row>
-    <row r="959" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I959" s="2"/>
-    </row>
-    <row r="960" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I960" s="2"/>
-    </row>
-    <row r="961" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I961" s="2"/>
-    </row>
-    <row r="962" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I962" s="2"/>
-    </row>
-    <row r="963" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I963" s="2"/>
-    </row>
-    <row r="964" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I964" s="2"/>
-    </row>
-    <row r="965" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I965" s="2"/>
-    </row>
-    <row r="966" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I966" s="2"/>
-    </row>
-    <row r="967" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I967" s="2"/>
-    </row>
-    <row r="968" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I968" s="2"/>
-    </row>
-    <row r="969" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I969" s="2"/>
-    </row>
-    <row r="970" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I970" s="2"/>
-    </row>
-    <row r="971" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I971" s="2"/>
-    </row>
-    <row r="972" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I972" s="2"/>
-    </row>
-    <row r="973" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I973" s="2"/>
-    </row>
-    <row r="974" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I974" s="2"/>
-    </row>
-    <row r="975" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I975" s="2"/>
-    </row>
-    <row r="976" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I976" s="2"/>
-    </row>
-    <row r="977" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I977" s="2"/>
-    </row>
-    <row r="978" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I978" s="2"/>
-    </row>
-    <row r="979" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I979" s="2"/>
-    </row>
-    <row r="980" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I980" s="2"/>
-    </row>
-    <row r="981" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I981" s="2"/>
-    </row>
-    <row r="982" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I982" s="2"/>
-    </row>
-    <row r="983" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I983" s="2"/>
-    </row>
-    <row r="984" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I984" s="2"/>
-    </row>
-    <row r="985" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I985" s="2"/>
-    </row>
-    <row r="986" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I986" s="2"/>
-    </row>
-    <row r="987" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I987" s="2"/>
-    </row>
-    <row r="988" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I988" s="2"/>
-    </row>
-    <row r="989" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I989" s="2"/>
-    </row>
-    <row r="990" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I990" s="2"/>
-    </row>
-    <row r="991" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I991" s="2"/>
-    </row>
-    <row r="992" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I992" s="2"/>
-    </row>
-    <row r="993" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I993" s="2"/>
-    </row>
-    <row r="994" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I994" s="2"/>
-    </row>
-    <row r="995" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I995" s="2"/>
-    </row>
-    <row r="996" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I996" s="2"/>
-    </row>
-    <row r="997" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I997" s="2"/>
-    </row>
-    <row r="998" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I998" s="2"/>
-    </row>
-    <row r="999" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I999" s="2"/>
-    </row>
-    <row r="1000" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I1000" s="2"/>
-    </row>
-    <row r="1001" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I1001" s="2"/>
-    </row>
-    <row r="1002" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I1002" s="2"/>
-    </row>
-    <row r="1003" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I1003" s="2"/>
-    </row>
-    <row r="1004" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I1004" s="2"/>
-    </row>
-    <row r="1005" spans="9:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="I1005" s="2"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J116" s="2"/>
+    </row>
+    <row r="117" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J123" s="2"/>
+    </row>
+    <row r="124" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J126" s="2"/>
+    </row>
+    <row r="127" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J144" s="2"/>
+    </row>
+    <row r="145" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J145" s="2"/>
+    </row>
+    <row r="146" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J147" s="2"/>
+    </row>
+    <row r="148" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J148" s="2"/>
+    </row>
+    <row r="149" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J156" s="2"/>
+    </row>
+    <row r="157" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J157" s="2"/>
+    </row>
+    <row r="158" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J158" s="2"/>
+    </row>
+    <row r="159" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J166" s="2"/>
+    </row>
+    <row r="167" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J167" s="2"/>
+    </row>
+    <row r="168" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J168" s="2"/>
+    </row>
+    <row r="169" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J170" s="2"/>
+    </row>
+    <row r="171" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J171" s="2"/>
+    </row>
+    <row r="172" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J172" s="2"/>
+    </row>
+    <row r="173" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J173" s="2"/>
+    </row>
+    <row r="174" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J174" s="2"/>
+    </row>
+    <row r="175" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J175" s="2"/>
+    </row>
+    <row r="176" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J176" s="2"/>
+    </row>
+    <row r="177" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J177" s="2"/>
+    </row>
+    <row r="178" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J178" s="2"/>
+    </row>
+    <row r="179" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J180" s="2"/>
+    </row>
+    <row r="181" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J181" s="2"/>
+    </row>
+    <row r="182" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J183" s="2"/>
+    </row>
+    <row r="184" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J184" s="2"/>
+    </row>
+    <row r="185" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J186" s="2"/>
+    </row>
+    <row r="187" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J187" s="2"/>
+    </row>
+    <row r="188" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J189" s="2"/>
+    </row>
+    <row r="190" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J190" s="2"/>
+    </row>
+    <row r="191" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J191" s="2"/>
+    </row>
+    <row r="192" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J192" s="2"/>
+    </row>
+    <row r="193" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J193" s="2"/>
+    </row>
+    <row r="194" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J194" s="2"/>
+    </row>
+    <row r="195" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J195" s="2"/>
+    </row>
+    <row r="196" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J196" s="2"/>
+    </row>
+    <row r="197" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J198" s="2"/>
+    </row>
+    <row r="199" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J199" s="2"/>
+    </row>
+    <row r="200" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J200" s="2"/>
+    </row>
+    <row r="201" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J201" s="2"/>
+    </row>
+    <row r="202" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J202" s="2"/>
+    </row>
+    <row r="203" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J203" s="2"/>
+    </row>
+    <row r="204" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J204" s="2"/>
+    </row>
+    <row r="205" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J205" s="2"/>
+    </row>
+    <row r="206" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J206" s="2"/>
+    </row>
+    <row r="207" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J207" s="2"/>
+    </row>
+    <row r="208" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J208" s="2"/>
+    </row>
+    <row r="209" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J210" s="2"/>
+    </row>
+    <row r="211" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J211" s="2"/>
+    </row>
+    <row r="212" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J212" s="2"/>
+    </row>
+    <row r="213" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J213" s="2"/>
+    </row>
+    <row r="214" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J214" s="2"/>
+    </row>
+    <row r="215" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J216" s="2"/>
+    </row>
+    <row r="217" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J217" s="2"/>
+    </row>
+    <row r="218" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J218" s="2"/>
+    </row>
+    <row r="219" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J219" s="2"/>
+    </row>
+    <row r="220" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J220" s="2"/>
+    </row>
+    <row r="221" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J221" s="2"/>
+    </row>
+    <row r="222" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J222" s="2"/>
+    </row>
+    <row r="223" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J223" s="2"/>
+    </row>
+    <row r="224" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J224" s="2"/>
+    </row>
+    <row r="225" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J225" s="2"/>
+    </row>
+    <row r="226" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J226" s="2"/>
+    </row>
+    <row r="227" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J227" s="2"/>
+    </row>
+    <row r="228" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J228" s="2"/>
+    </row>
+    <row r="229" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J229" s="2"/>
+    </row>
+    <row r="230" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J230" s="2"/>
+    </row>
+    <row r="231" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J232" s="2"/>
+    </row>
+    <row r="233" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J233" s="2"/>
+    </row>
+    <row r="234" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J234" s="2"/>
+    </row>
+    <row r="235" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J235" s="2"/>
+    </row>
+    <row r="236" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J236" s="2"/>
+    </row>
+    <row r="237" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J237" s="2"/>
+    </row>
+    <row r="238" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J238" s="2"/>
+    </row>
+    <row r="239" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J239" s="2"/>
+    </row>
+    <row r="240" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J240" s="2"/>
+    </row>
+    <row r="241" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J241" s="2"/>
+    </row>
+    <row r="242" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J242" s="2"/>
+    </row>
+    <row r="243" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J243" s="2"/>
+    </row>
+    <row r="244" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J244" s="2"/>
+    </row>
+    <row r="245" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J245" s="2"/>
+    </row>
+    <row r="246" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J246" s="2"/>
+    </row>
+    <row r="247" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J247" s="2"/>
+    </row>
+    <row r="248" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J248" s="2"/>
+    </row>
+    <row r="249" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J249" s="2"/>
+    </row>
+    <row r="250" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J250" s="2"/>
+    </row>
+    <row r="251" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J251" s="2"/>
+    </row>
+    <row r="252" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J252" s="2"/>
+    </row>
+    <row r="253" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J253" s="2"/>
+    </row>
+    <row r="254" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J254" s="2"/>
+    </row>
+    <row r="255" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J255" s="2"/>
+    </row>
+    <row r="256" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J256" s="2"/>
+    </row>
+    <row r="257" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J257" s="2"/>
+    </row>
+    <row r="258" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J258" s="2"/>
+    </row>
+    <row r="259" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J259" s="2"/>
+    </row>
+    <row r="260" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J260" s="2"/>
+    </row>
+    <row r="261" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J261" s="2"/>
+    </row>
+    <row r="262" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J262" s="2"/>
+    </row>
+    <row r="263" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J263" s="2"/>
+    </row>
+    <row r="264" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J264" s="2"/>
+    </row>
+    <row r="265" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J265" s="2"/>
+    </row>
+    <row r="266" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J266" s="2"/>
+    </row>
+    <row r="267" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J267" s="2"/>
+    </row>
+    <row r="268" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J268" s="2"/>
+    </row>
+    <row r="269" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J269" s="2"/>
+    </row>
+    <row r="270" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J270" s="2"/>
+    </row>
+    <row r="271" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J271" s="2"/>
+    </row>
+    <row r="272" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J272" s="2"/>
+    </row>
+    <row r="273" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J273" s="2"/>
+    </row>
+    <row r="274" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J274" s="2"/>
+    </row>
+    <row r="275" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J275" s="2"/>
+    </row>
+    <row r="276" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J276" s="2"/>
+    </row>
+    <row r="277" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J277" s="2"/>
+    </row>
+    <row r="278" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J278" s="2"/>
+    </row>
+    <row r="279" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J279" s="2"/>
+    </row>
+    <row r="280" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J280" s="2"/>
+    </row>
+    <row r="281" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J281" s="2"/>
+    </row>
+    <row r="282" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J282" s="2"/>
+    </row>
+    <row r="283" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J283" s="2"/>
+    </row>
+    <row r="284" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J284" s="2"/>
+    </row>
+    <row r="285" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J285" s="2"/>
+    </row>
+    <row r="286" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J286" s="2"/>
+    </row>
+    <row r="287" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J287" s="2"/>
+    </row>
+    <row r="288" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J288" s="2"/>
+    </row>
+    <row r="289" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J289" s="2"/>
+    </row>
+    <row r="290" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J290" s="2"/>
+    </row>
+    <row r="291" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J291" s="2"/>
+    </row>
+    <row r="292" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J292" s="2"/>
+    </row>
+    <row r="293" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J293" s="2"/>
+    </row>
+    <row r="294" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J294" s="2"/>
+    </row>
+    <row r="295" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J295" s="2"/>
+    </row>
+    <row r="296" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J296" s="2"/>
+    </row>
+    <row r="297" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J297" s="2"/>
+    </row>
+    <row r="298" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J298" s="2"/>
+    </row>
+    <row r="299" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J299" s="2"/>
+    </row>
+    <row r="300" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J300" s="2"/>
+    </row>
+    <row r="301" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J301" s="2"/>
+    </row>
+    <row r="302" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J302" s="2"/>
+    </row>
+    <row r="303" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J303" s="2"/>
+    </row>
+    <row r="304" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J304" s="2"/>
+    </row>
+    <row r="305" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J305" s="2"/>
+    </row>
+    <row r="306" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J306" s="2"/>
+    </row>
+    <row r="307" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J307" s="2"/>
+    </row>
+    <row r="308" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J308" s="2"/>
+    </row>
+    <row r="309" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J309" s="2"/>
+    </row>
+    <row r="310" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J310" s="2"/>
+    </row>
+    <row r="311" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J311" s="2"/>
+    </row>
+    <row r="312" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J312" s="2"/>
+    </row>
+    <row r="313" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J313" s="2"/>
+    </row>
+    <row r="314" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J314" s="2"/>
+    </row>
+    <row r="315" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J315" s="2"/>
+    </row>
+    <row r="316" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J316" s="2"/>
+    </row>
+    <row r="317" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J317" s="2"/>
+    </row>
+    <row r="318" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J318" s="2"/>
+    </row>
+    <row r="319" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J319" s="2"/>
+    </row>
+    <row r="320" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J320" s="2"/>
+    </row>
+    <row r="321" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J321" s="2"/>
+    </row>
+    <row r="322" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J322" s="2"/>
+    </row>
+    <row r="323" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J323" s="2"/>
+    </row>
+    <row r="324" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J324" s="2"/>
+    </row>
+    <row r="325" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J325" s="2"/>
+    </row>
+    <row r="326" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J326" s="2"/>
+    </row>
+    <row r="327" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J327" s="2"/>
+    </row>
+    <row r="328" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J328" s="2"/>
+    </row>
+    <row r="329" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J329" s="2"/>
+    </row>
+    <row r="330" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J330" s="2"/>
+    </row>
+    <row r="331" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J331" s="2"/>
+    </row>
+    <row r="332" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J332" s="2"/>
+    </row>
+    <row r="333" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J333" s="2"/>
+    </row>
+    <row r="334" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J334" s="2"/>
+    </row>
+    <row r="335" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J335" s="2"/>
+    </row>
+    <row r="336" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J336" s="2"/>
+    </row>
+    <row r="337" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J337" s="2"/>
+    </row>
+    <row r="338" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J338" s="2"/>
+    </row>
+    <row r="339" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J339" s="2"/>
+    </row>
+    <row r="340" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J340" s="2"/>
+    </row>
+    <row r="341" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J341" s="2"/>
+    </row>
+    <row r="342" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J342" s="2"/>
+    </row>
+    <row r="343" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J343" s="2"/>
+    </row>
+    <row r="344" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J344" s="2"/>
+    </row>
+    <row r="345" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J345" s="2"/>
+    </row>
+    <row r="346" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J346" s="2"/>
+    </row>
+    <row r="347" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J347" s="2"/>
+    </row>
+    <row r="348" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J348" s="2"/>
+    </row>
+    <row r="349" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J349" s="2"/>
+    </row>
+    <row r="350" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J350" s="2"/>
+    </row>
+    <row r="351" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J351" s="2"/>
+    </row>
+    <row r="352" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J352" s="2"/>
+    </row>
+    <row r="353" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J353" s="2"/>
+    </row>
+    <row r="354" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J354" s="2"/>
+    </row>
+    <row r="355" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J355" s="2"/>
+    </row>
+    <row r="356" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J356" s="2"/>
+    </row>
+    <row r="357" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J357" s="2"/>
+    </row>
+    <row r="358" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J358" s="2"/>
+    </row>
+    <row r="359" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J359" s="2"/>
+    </row>
+    <row r="360" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J360" s="2"/>
+    </row>
+    <row r="361" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J361" s="2"/>
+    </row>
+    <row r="362" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J362" s="2"/>
+    </row>
+    <row r="363" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J363" s="2"/>
+    </row>
+    <row r="364" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J364" s="2"/>
+    </row>
+    <row r="365" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J365" s="2"/>
+    </row>
+    <row r="366" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J366" s="2"/>
+    </row>
+    <row r="367" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J367" s="2"/>
+    </row>
+    <row r="368" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J368" s="2"/>
+    </row>
+    <row r="369" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J369" s="2"/>
+    </row>
+    <row r="370" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J370" s="2"/>
+    </row>
+    <row r="371" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J371" s="2"/>
+    </row>
+    <row r="372" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J372" s="2"/>
+    </row>
+    <row r="373" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J373" s="2"/>
+    </row>
+    <row r="374" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J374" s="2"/>
+    </row>
+    <row r="375" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J375" s="2"/>
+    </row>
+    <row r="376" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J376" s="2"/>
+    </row>
+    <row r="377" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J377" s="2"/>
+    </row>
+    <row r="378" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J378" s="2"/>
+    </row>
+    <row r="379" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J379" s="2"/>
+    </row>
+    <row r="380" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J380" s="2"/>
+    </row>
+    <row r="381" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J381" s="2"/>
+    </row>
+    <row r="382" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J382" s="2"/>
+    </row>
+    <row r="383" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J383" s="2"/>
+    </row>
+    <row r="384" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J384" s="2"/>
+    </row>
+    <row r="385" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J385" s="2"/>
+    </row>
+    <row r="386" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J386" s="2"/>
+    </row>
+    <row r="387" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J387" s="2"/>
+    </row>
+    <row r="388" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J388" s="2"/>
+    </row>
+    <row r="389" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J389" s="2"/>
+    </row>
+    <row r="390" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J390" s="2"/>
+    </row>
+    <row r="391" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J391" s="2"/>
+    </row>
+    <row r="392" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J392" s="2"/>
+    </row>
+    <row r="393" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J393" s="2"/>
+    </row>
+    <row r="394" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J394" s="2"/>
+    </row>
+    <row r="395" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J395" s="2"/>
+    </row>
+    <row r="396" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J396" s="2"/>
+    </row>
+    <row r="397" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J397" s="2"/>
+    </row>
+    <row r="398" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J398" s="2"/>
+    </row>
+    <row r="399" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J399" s="2"/>
+    </row>
+    <row r="400" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J400" s="2"/>
+    </row>
+    <row r="401" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J401" s="2"/>
+    </row>
+    <row r="402" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J402" s="2"/>
+    </row>
+    <row r="403" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J403" s="2"/>
+    </row>
+    <row r="404" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J404" s="2"/>
+    </row>
+    <row r="405" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J405" s="2"/>
+    </row>
+    <row r="406" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J406" s="2"/>
+    </row>
+    <row r="407" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J407" s="2"/>
+    </row>
+    <row r="408" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J408" s="2"/>
+    </row>
+    <row r="409" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J409" s="2"/>
+    </row>
+    <row r="410" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J410" s="2"/>
+    </row>
+    <row r="411" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J411" s="2"/>
+    </row>
+    <row r="412" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J412" s="2"/>
+    </row>
+    <row r="413" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J413" s="2"/>
+    </row>
+    <row r="414" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J414" s="2"/>
+    </row>
+    <row r="415" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J415" s="2"/>
+    </row>
+    <row r="416" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J416" s="2"/>
+    </row>
+    <row r="417" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J417" s="2"/>
+    </row>
+    <row r="418" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J418" s="2"/>
+    </row>
+    <row r="419" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J419" s="2"/>
+    </row>
+    <row r="420" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J420" s="2"/>
+    </row>
+    <row r="421" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J421" s="2"/>
+    </row>
+    <row r="422" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J422" s="2"/>
+    </row>
+    <row r="423" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J423" s="2"/>
+    </row>
+    <row r="424" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J424" s="2"/>
+    </row>
+    <row r="425" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J425" s="2"/>
+    </row>
+    <row r="426" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J426" s="2"/>
+    </row>
+    <row r="427" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J427" s="2"/>
+    </row>
+    <row r="428" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J428" s="2"/>
+    </row>
+    <row r="429" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J429" s="2"/>
+    </row>
+    <row r="430" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J430" s="2"/>
+    </row>
+    <row r="431" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J431" s="2"/>
+    </row>
+    <row r="432" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J432" s="2"/>
+    </row>
+    <row r="433" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J433" s="2"/>
+    </row>
+    <row r="434" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J434" s="2"/>
+    </row>
+    <row r="435" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J435" s="2"/>
+    </row>
+    <row r="436" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J436" s="2"/>
+    </row>
+    <row r="437" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J437" s="2"/>
+    </row>
+    <row r="438" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J438" s="2"/>
+    </row>
+    <row r="439" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J439" s="2"/>
+    </row>
+    <row r="440" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J440" s="2"/>
+    </row>
+    <row r="441" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J441" s="2"/>
+    </row>
+    <row r="442" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J442" s="2"/>
+    </row>
+    <row r="443" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J443" s="2"/>
+    </row>
+    <row r="444" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J444" s="2"/>
+    </row>
+    <row r="445" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J445" s="2"/>
+    </row>
+    <row r="446" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J446" s="2"/>
+    </row>
+    <row r="447" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J447" s="2"/>
+    </row>
+    <row r="448" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J448" s="2"/>
+    </row>
+    <row r="449" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J449" s="2"/>
+    </row>
+    <row r="450" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J450" s="2"/>
+    </row>
+    <row r="451" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J451" s="2"/>
+    </row>
+    <row r="452" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J452" s="2"/>
+    </row>
+    <row r="453" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J453" s="2"/>
+    </row>
+    <row r="454" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J454" s="2"/>
+    </row>
+    <row r="455" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J455" s="2"/>
+    </row>
+    <row r="456" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J456" s="2"/>
+    </row>
+    <row r="457" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J457" s="2"/>
+    </row>
+    <row r="458" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J458" s="2"/>
+    </row>
+    <row r="459" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J459" s="2"/>
+    </row>
+    <row r="460" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J460" s="2"/>
+    </row>
+    <row r="461" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J461" s="2"/>
+    </row>
+    <row r="462" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J462" s="2"/>
+    </row>
+    <row r="463" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J463" s="2"/>
+    </row>
+    <row r="464" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J464" s="2"/>
+    </row>
+    <row r="465" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J465" s="2"/>
+    </row>
+    <row r="466" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J466" s="2"/>
+    </row>
+    <row r="467" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J467" s="2"/>
+    </row>
+    <row r="468" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J468" s="2"/>
+    </row>
+    <row r="469" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J469" s="2"/>
+    </row>
+    <row r="470" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J470" s="2"/>
+    </row>
+    <row r="471" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J471" s="2"/>
+    </row>
+    <row r="472" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J472" s="2"/>
+    </row>
+    <row r="473" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J473" s="2"/>
+    </row>
+    <row r="474" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J474" s="2"/>
+    </row>
+    <row r="475" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J475" s="2"/>
+    </row>
+    <row r="476" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J476" s="2"/>
+    </row>
+    <row r="477" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J477" s="2"/>
+    </row>
+    <row r="478" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J478" s="2"/>
+    </row>
+    <row r="479" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J479" s="2"/>
+    </row>
+    <row r="480" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J480" s="2"/>
+    </row>
+    <row r="481" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J481" s="2"/>
+    </row>
+    <row r="482" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J482" s="2"/>
+    </row>
+    <row r="483" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J483" s="2"/>
+    </row>
+    <row r="484" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J484" s="2"/>
+    </row>
+    <row r="485" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J485" s="2"/>
+    </row>
+    <row r="486" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J486" s="2"/>
+    </row>
+    <row r="487" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J487" s="2"/>
+    </row>
+    <row r="488" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J488" s="2"/>
+    </row>
+    <row r="489" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J489" s="2"/>
+    </row>
+    <row r="490" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J490" s="2"/>
+    </row>
+    <row r="491" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J491" s="2"/>
+    </row>
+    <row r="492" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J492" s="2"/>
+    </row>
+    <row r="493" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J493" s="2"/>
+    </row>
+    <row r="494" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J494" s="2"/>
+    </row>
+    <row r="495" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J495" s="2"/>
+    </row>
+    <row r="496" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J496" s="2"/>
+    </row>
+    <row r="497" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J497" s="2"/>
+    </row>
+    <row r="498" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J498" s="2"/>
+    </row>
+    <row r="499" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J499" s="2"/>
+    </row>
+    <row r="500" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J500" s="2"/>
+    </row>
+    <row r="501" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J501" s="2"/>
+    </row>
+    <row r="502" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J502" s="2"/>
+    </row>
+    <row r="503" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J503" s="2"/>
+    </row>
+    <row r="504" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J504" s="2"/>
+    </row>
+    <row r="505" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J505" s="2"/>
+    </row>
+    <row r="506" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J506" s="2"/>
+    </row>
+    <row r="507" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J507" s="2"/>
+    </row>
+    <row r="508" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J508" s="2"/>
+    </row>
+    <row r="509" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J509" s="2"/>
+    </row>
+    <row r="510" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J510" s="2"/>
+    </row>
+    <row r="511" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J511" s="2"/>
+    </row>
+    <row r="512" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J512" s="2"/>
+    </row>
+    <row r="513" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J513" s="2"/>
+    </row>
+    <row r="514" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J514" s="2"/>
+    </row>
+    <row r="515" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J515" s="2"/>
+    </row>
+    <row r="516" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J516" s="2"/>
+    </row>
+    <row r="517" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J517" s="2"/>
+    </row>
+    <row r="518" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J518" s="2"/>
+    </row>
+    <row r="519" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J519" s="2"/>
+    </row>
+    <row r="520" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J520" s="2"/>
+    </row>
+    <row r="521" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J521" s="2"/>
+    </row>
+    <row r="522" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J522" s="2"/>
+    </row>
+    <row r="523" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J523" s="2"/>
+    </row>
+    <row r="524" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J524" s="2"/>
+    </row>
+    <row r="525" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J525" s="2"/>
+    </row>
+    <row r="526" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J526" s="2"/>
+    </row>
+    <row r="527" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J527" s="2"/>
+    </row>
+    <row r="528" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J528" s="2"/>
+    </row>
+    <row r="529" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J529" s="2"/>
+    </row>
+    <row r="530" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J530" s="2"/>
+    </row>
+    <row r="531" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J531" s="2"/>
+    </row>
+    <row r="532" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J532" s="2"/>
+    </row>
+    <row r="533" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J533" s="2"/>
+    </row>
+    <row r="534" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J534" s="2"/>
+    </row>
+    <row r="535" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J535" s="2"/>
+    </row>
+    <row r="536" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J536" s="2"/>
+    </row>
+    <row r="537" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J537" s="2"/>
+    </row>
+    <row r="538" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J538" s="2"/>
+    </row>
+    <row r="539" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J539" s="2"/>
+    </row>
+    <row r="540" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J540" s="2"/>
+    </row>
+    <row r="541" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J541" s="2"/>
+    </row>
+    <row r="542" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J542" s="2"/>
+    </row>
+    <row r="543" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J543" s="2"/>
+    </row>
+    <row r="544" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J544" s="2"/>
+    </row>
+    <row r="545" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J545" s="2"/>
+    </row>
+    <row r="546" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J546" s="2"/>
+    </row>
+    <row r="547" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J547" s="2"/>
+    </row>
+    <row r="548" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J548" s="2"/>
+    </row>
+    <row r="549" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J549" s="2"/>
+    </row>
+    <row r="550" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J550" s="2"/>
+    </row>
+    <row r="551" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J551" s="2"/>
+    </row>
+    <row r="552" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J552" s="2"/>
+    </row>
+    <row r="553" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J553" s="2"/>
+    </row>
+    <row r="554" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J554" s="2"/>
+    </row>
+    <row r="555" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J555" s="2"/>
+    </row>
+    <row r="556" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J556" s="2"/>
+    </row>
+    <row r="557" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J557" s="2"/>
+    </row>
+    <row r="558" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J558" s="2"/>
+    </row>
+    <row r="559" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J559" s="2"/>
+    </row>
+    <row r="560" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J560" s="2"/>
+    </row>
+    <row r="561" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J561" s="2"/>
+    </row>
+    <row r="562" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J562" s="2"/>
+    </row>
+    <row r="563" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J563" s="2"/>
+    </row>
+    <row r="564" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J564" s="2"/>
+    </row>
+    <row r="565" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J565" s="2"/>
+    </row>
+    <row r="566" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J566" s="2"/>
+    </row>
+    <row r="567" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J567" s="2"/>
+    </row>
+    <row r="568" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J568" s="2"/>
+    </row>
+    <row r="569" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J569" s="2"/>
+    </row>
+    <row r="570" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J570" s="2"/>
+    </row>
+    <row r="571" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J571" s="2"/>
+    </row>
+    <row r="572" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J572" s="2"/>
+    </row>
+    <row r="573" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J573" s="2"/>
+    </row>
+    <row r="574" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J574" s="2"/>
+    </row>
+    <row r="575" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J575" s="2"/>
+    </row>
+    <row r="576" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J576" s="2"/>
+    </row>
+    <row r="577" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J577" s="2"/>
+    </row>
+    <row r="578" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J578" s="2"/>
+    </row>
+    <row r="579" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J579" s="2"/>
+    </row>
+    <row r="580" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J580" s="2"/>
+    </row>
+    <row r="581" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J581" s="2"/>
+    </row>
+    <row r="582" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J582" s="2"/>
+    </row>
+    <row r="583" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J583" s="2"/>
+    </row>
+    <row r="584" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J584" s="2"/>
+    </row>
+    <row r="585" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J585" s="2"/>
+    </row>
+    <row r="586" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J586" s="2"/>
+    </row>
+    <row r="587" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J587" s="2"/>
+    </row>
+    <row r="588" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J588" s="2"/>
+    </row>
+    <row r="589" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J589" s="2"/>
+    </row>
+    <row r="590" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J590" s="2"/>
+    </row>
+    <row r="591" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J591" s="2"/>
+    </row>
+    <row r="592" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J592" s="2"/>
+    </row>
+    <row r="593" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J593" s="2"/>
+    </row>
+    <row r="594" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J594" s="2"/>
+    </row>
+    <row r="595" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J595" s="2"/>
+    </row>
+    <row r="596" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J596" s="2"/>
+    </row>
+    <row r="597" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J597" s="2"/>
+    </row>
+    <row r="598" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J598" s="2"/>
+    </row>
+    <row r="599" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J599" s="2"/>
+    </row>
+    <row r="600" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J600" s="2"/>
+    </row>
+    <row r="601" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J601" s="2"/>
+    </row>
+    <row r="602" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J602" s="2"/>
+    </row>
+    <row r="603" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J603" s="2"/>
+    </row>
+    <row r="604" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J604" s="2"/>
+    </row>
+    <row r="605" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J605" s="2"/>
+    </row>
+    <row r="606" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J606" s="2"/>
+    </row>
+    <row r="607" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J607" s="2"/>
+    </row>
+    <row r="608" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J608" s="2"/>
+    </row>
+    <row r="609" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J609" s="2"/>
+    </row>
+    <row r="610" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J610" s="2"/>
+    </row>
+    <row r="611" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J611" s="2"/>
+    </row>
+    <row r="612" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J612" s="2"/>
+    </row>
+    <row r="613" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J613" s="2"/>
+    </row>
+    <row r="614" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J614" s="2"/>
+    </row>
+    <row r="615" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J615" s="2"/>
+    </row>
+    <row r="616" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J616" s="2"/>
+    </row>
+    <row r="617" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J617" s="2"/>
+    </row>
+    <row r="618" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J618" s="2"/>
+    </row>
+    <row r="619" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J619" s="2"/>
+    </row>
+    <row r="620" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J620" s="2"/>
+    </row>
+    <row r="621" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J621" s="2"/>
+    </row>
+    <row r="622" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J622" s="2"/>
+    </row>
+    <row r="623" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J623" s="2"/>
+    </row>
+    <row r="624" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J624" s="2"/>
+    </row>
+    <row r="625" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J625" s="2"/>
+    </row>
+    <row r="626" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J626" s="2"/>
+    </row>
+    <row r="627" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J627" s="2"/>
+    </row>
+    <row r="628" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J628" s="2"/>
+    </row>
+    <row r="629" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J629" s="2"/>
+    </row>
+    <row r="630" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J630" s="2"/>
+    </row>
+    <row r="631" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J631" s="2"/>
+    </row>
+    <row r="632" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J632" s="2"/>
+    </row>
+    <row r="633" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J633" s="2"/>
+    </row>
+    <row r="634" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J634" s="2"/>
+    </row>
+    <row r="635" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J635" s="2"/>
+    </row>
+    <row r="636" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J636" s="2"/>
+    </row>
+    <row r="637" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J637" s="2"/>
+    </row>
+    <row r="638" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J638" s="2"/>
+    </row>
+    <row r="639" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J639" s="2"/>
+    </row>
+    <row r="640" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J640" s="2"/>
+    </row>
+    <row r="641" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J641" s="2"/>
+    </row>
+    <row r="642" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J642" s="2"/>
+    </row>
+    <row r="643" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J643" s="2"/>
+    </row>
+    <row r="644" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J644" s="2"/>
+    </row>
+    <row r="645" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J645" s="2"/>
+    </row>
+    <row r="646" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J646" s="2"/>
+    </row>
+    <row r="647" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J647" s="2"/>
+    </row>
+    <row r="648" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J648" s="2"/>
+    </row>
+    <row r="649" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J649" s="2"/>
+    </row>
+    <row r="650" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J650" s="2"/>
+    </row>
+    <row r="651" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J651" s="2"/>
+    </row>
+    <row r="652" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J652" s="2"/>
+    </row>
+    <row r="653" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J653" s="2"/>
+    </row>
+    <row r="654" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J654" s="2"/>
+    </row>
+    <row r="655" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J655" s="2"/>
+    </row>
+    <row r="656" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J656" s="2"/>
+    </row>
+    <row r="657" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J657" s="2"/>
+    </row>
+    <row r="658" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J658" s="2"/>
+    </row>
+    <row r="659" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J659" s="2"/>
+    </row>
+    <row r="660" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J660" s="2"/>
+    </row>
+    <row r="661" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J661" s="2"/>
+    </row>
+    <row r="662" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J662" s="2"/>
+    </row>
+    <row r="663" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J663" s="2"/>
+    </row>
+    <row r="664" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J664" s="2"/>
+    </row>
+    <row r="665" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J665" s="2"/>
+    </row>
+    <row r="666" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J666" s="2"/>
+    </row>
+    <row r="667" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J667" s="2"/>
+    </row>
+    <row r="668" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J668" s="2"/>
+    </row>
+    <row r="669" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J669" s="2"/>
+    </row>
+    <row r="670" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J670" s="2"/>
+    </row>
+    <row r="671" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J671" s="2"/>
+    </row>
+    <row r="672" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J672" s="2"/>
+    </row>
+    <row r="673" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J673" s="2"/>
+    </row>
+    <row r="674" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J674" s="2"/>
+    </row>
+    <row r="675" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J675" s="2"/>
+    </row>
+    <row r="676" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J676" s="2"/>
+    </row>
+    <row r="677" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J677" s="2"/>
+    </row>
+    <row r="678" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J678" s="2"/>
+    </row>
+    <row r="679" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J679" s="2"/>
+    </row>
+    <row r="680" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J680" s="2"/>
+    </row>
+    <row r="681" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J681" s="2"/>
+    </row>
+    <row r="682" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J682" s="2"/>
+    </row>
+    <row r="683" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J683" s="2"/>
+    </row>
+    <row r="684" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J684" s="2"/>
+    </row>
+    <row r="685" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J685" s="2"/>
+    </row>
+    <row r="686" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J686" s="2"/>
+    </row>
+    <row r="687" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J687" s="2"/>
+    </row>
+    <row r="688" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J688" s="2"/>
+    </row>
+    <row r="689" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J689" s="2"/>
+    </row>
+    <row r="690" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J690" s="2"/>
+    </row>
+    <row r="691" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J691" s="2"/>
+    </row>
+    <row r="692" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J692" s="2"/>
+    </row>
+    <row r="693" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J693" s="2"/>
+    </row>
+    <row r="694" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J694" s="2"/>
+    </row>
+    <row r="695" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J695" s="2"/>
+    </row>
+    <row r="696" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J696" s="2"/>
+    </row>
+    <row r="697" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J697" s="2"/>
+    </row>
+    <row r="698" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J698" s="2"/>
+    </row>
+    <row r="699" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J699" s="2"/>
+    </row>
+    <row r="700" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J700" s="2"/>
+    </row>
+    <row r="701" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J701" s="2"/>
+    </row>
+    <row r="702" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J702" s="2"/>
+    </row>
+    <row r="703" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J703" s="2"/>
+    </row>
+    <row r="704" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J704" s="2"/>
+    </row>
+    <row r="705" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J705" s="2"/>
+    </row>
+    <row r="706" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J706" s="2"/>
+    </row>
+    <row r="707" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J707" s="2"/>
+    </row>
+    <row r="708" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J708" s="2"/>
+    </row>
+    <row r="709" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J709" s="2"/>
+    </row>
+    <row r="710" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J710" s="2"/>
+    </row>
+    <row r="711" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J711" s="2"/>
+    </row>
+    <row r="712" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J712" s="2"/>
+    </row>
+    <row r="713" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J713" s="2"/>
+    </row>
+    <row r="714" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J714" s="2"/>
+    </row>
+    <row r="715" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J715" s="2"/>
+    </row>
+    <row r="716" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J716" s="2"/>
+    </row>
+    <row r="717" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J717" s="2"/>
+    </row>
+    <row r="718" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J718" s="2"/>
+    </row>
+    <row r="719" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J719" s="2"/>
+    </row>
+    <row r="720" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J720" s="2"/>
+    </row>
+    <row r="721" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J721" s="2"/>
+    </row>
+    <row r="722" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J722" s="2"/>
+    </row>
+    <row r="723" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J723" s="2"/>
+    </row>
+    <row r="724" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J724" s="2"/>
+    </row>
+    <row r="725" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J725" s="2"/>
+    </row>
+    <row r="726" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J726" s="2"/>
+    </row>
+    <row r="727" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J727" s="2"/>
+    </row>
+    <row r="728" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J728" s="2"/>
+    </row>
+    <row r="729" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J729" s="2"/>
+    </row>
+    <row r="730" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J730" s="2"/>
+    </row>
+    <row r="731" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J731" s="2"/>
+    </row>
+    <row r="732" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J732" s="2"/>
+    </row>
+    <row r="733" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J733" s="2"/>
+    </row>
+    <row r="734" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J734" s="2"/>
+    </row>
+    <row r="735" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J735" s="2"/>
+    </row>
+    <row r="736" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J736" s="2"/>
+    </row>
+    <row r="737" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J737" s="2"/>
+    </row>
+    <row r="738" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J738" s="2"/>
+    </row>
+    <row r="739" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J739" s="2"/>
+    </row>
+    <row r="740" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J740" s="2"/>
+    </row>
+    <row r="741" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J741" s="2"/>
+    </row>
+    <row r="742" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J742" s="2"/>
+    </row>
+    <row r="743" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J743" s="2"/>
+    </row>
+    <row r="744" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J744" s="2"/>
+    </row>
+    <row r="745" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J745" s="2"/>
+    </row>
+    <row r="746" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J746" s="2"/>
+    </row>
+    <row r="747" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J747" s="2"/>
+    </row>
+    <row r="748" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J748" s="2"/>
+    </row>
+    <row r="749" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J749" s="2"/>
+    </row>
+    <row r="750" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J750" s="2"/>
+    </row>
+    <row r="751" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J751" s="2"/>
+    </row>
+    <row r="752" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J752" s="2"/>
+    </row>
+    <row r="753" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J753" s="2"/>
+    </row>
+    <row r="754" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J754" s="2"/>
+    </row>
+    <row r="755" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J755" s="2"/>
+    </row>
+    <row r="756" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J756" s="2"/>
+    </row>
+    <row r="757" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J757" s="2"/>
+    </row>
+    <row r="758" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J758" s="2"/>
+    </row>
+    <row r="759" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J759" s="2"/>
+    </row>
+    <row r="760" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J760" s="2"/>
+    </row>
+    <row r="761" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J761" s="2"/>
+    </row>
+    <row r="762" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J762" s="2"/>
+    </row>
+    <row r="763" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J763" s="2"/>
+    </row>
+    <row r="764" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J764" s="2"/>
+    </row>
+    <row r="765" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J765" s="2"/>
+    </row>
+    <row r="766" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J766" s="2"/>
+    </row>
+    <row r="767" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J767" s="2"/>
+    </row>
+    <row r="768" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J768" s="2"/>
+    </row>
+    <row r="769" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J769" s="2"/>
+    </row>
+    <row r="770" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J770" s="2"/>
+    </row>
+    <row r="771" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J771" s="2"/>
+    </row>
+    <row r="772" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J772" s="2"/>
+    </row>
+    <row r="773" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J773" s="2"/>
+    </row>
+    <row r="774" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J774" s="2"/>
+    </row>
+    <row r="775" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J775" s="2"/>
+    </row>
+    <row r="776" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J776" s="2"/>
+    </row>
+    <row r="777" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J777" s="2"/>
+    </row>
+    <row r="778" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J778" s="2"/>
+    </row>
+    <row r="779" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J779" s="2"/>
+    </row>
+    <row r="780" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J780" s="2"/>
+    </row>
+    <row r="781" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J781" s="2"/>
+    </row>
+    <row r="782" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J782" s="2"/>
+    </row>
+    <row r="783" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J783" s="2"/>
+    </row>
+    <row r="784" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J784" s="2"/>
+    </row>
+    <row r="785" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J785" s="2"/>
+    </row>
+    <row r="786" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J786" s="2"/>
+    </row>
+    <row r="787" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J787" s="2"/>
+    </row>
+    <row r="788" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J788" s="2"/>
+    </row>
+    <row r="789" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J789" s="2"/>
+    </row>
+    <row r="790" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J790" s="2"/>
+    </row>
+    <row r="791" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J791" s="2"/>
+    </row>
+    <row r="792" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J792" s="2"/>
+    </row>
+    <row r="793" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J793" s="2"/>
+    </row>
+    <row r="794" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J794" s="2"/>
+    </row>
+    <row r="795" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J795" s="2"/>
+    </row>
+    <row r="796" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J796" s="2"/>
+    </row>
+    <row r="797" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J797" s="2"/>
+    </row>
+    <row r="798" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J798" s="2"/>
+    </row>
+    <row r="799" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J799" s="2"/>
+    </row>
+    <row r="800" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J800" s="2"/>
+    </row>
+    <row r="801" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J801" s="2"/>
+    </row>
+    <row r="802" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J802" s="2"/>
+    </row>
+    <row r="803" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J803" s="2"/>
+    </row>
+    <row r="804" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J804" s="2"/>
+    </row>
+    <row r="805" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J805" s="2"/>
+    </row>
+    <row r="806" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J806" s="2"/>
+    </row>
+    <row r="807" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J807" s="2"/>
+    </row>
+    <row r="808" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J808" s="2"/>
+    </row>
+    <row r="809" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J809" s="2"/>
+    </row>
+    <row r="810" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J810" s="2"/>
+    </row>
+    <row r="811" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J811" s="2"/>
+    </row>
+    <row r="812" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J812" s="2"/>
+    </row>
+    <row r="813" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J813" s="2"/>
+    </row>
+    <row r="814" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J814" s="2"/>
+    </row>
+    <row r="815" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J815" s="2"/>
+    </row>
+    <row r="816" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J816" s="2"/>
+    </row>
+    <row r="817" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J817" s="2"/>
+    </row>
+    <row r="818" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J818" s="2"/>
+    </row>
+    <row r="819" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J819" s="2"/>
+    </row>
+    <row r="820" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J820" s="2"/>
+    </row>
+    <row r="821" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J821" s="2"/>
+    </row>
+    <row r="822" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J822" s="2"/>
+    </row>
+    <row r="823" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J823" s="2"/>
+    </row>
+    <row r="824" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J824" s="2"/>
+    </row>
+    <row r="825" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J825" s="2"/>
+    </row>
+    <row r="826" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J826" s="2"/>
+    </row>
+    <row r="827" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J827" s="2"/>
+    </row>
+    <row r="828" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J828" s="2"/>
+    </row>
+    <row r="829" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J829" s="2"/>
+    </row>
+    <row r="830" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J830" s="2"/>
+    </row>
+    <row r="831" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J831" s="2"/>
+    </row>
+    <row r="832" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J832" s="2"/>
+    </row>
+    <row r="833" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J833" s="2"/>
+    </row>
+    <row r="834" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J834" s="2"/>
+    </row>
+    <row r="835" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J835" s="2"/>
+    </row>
+    <row r="836" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J836" s="2"/>
+    </row>
+    <row r="837" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J837" s="2"/>
+    </row>
+    <row r="838" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J838" s="2"/>
+    </row>
+    <row r="839" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J839" s="2"/>
+    </row>
+    <row r="840" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J840" s="2"/>
+    </row>
+    <row r="841" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J841" s="2"/>
+    </row>
+    <row r="842" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J842" s="2"/>
+    </row>
+    <row r="843" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J843" s="2"/>
+    </row>
+    <row r="844" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J844" s="2"/>
+    </row>
+    <row r="845" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J845" s="2"/>
+    </row>
+    <row r="846" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J846" s="2"/>
+    </row>
+    <row r="847" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J847" s="2"/>
+    </row>
+    <row r="848" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J848" s="2"/>
+    </row>
+    <row r="849" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J849" s="2"/>
+    </row>
+    <row r="850" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J850" s="2"/>
+    </row>
+    <row r="851" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J851" s="2"/>
+    </row>
+    <row r="852" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J852" s="2"/>
+    </row>
+    <row r="853" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J853" s="2"/>
+    </row>
+    <row r="854" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J854" s="2"/>
+    </row>
+    <row r="855" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J855" s="2"/>
+    </row>
+    <row r="856" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J856" s="2"/>
+    </row>
+    <row r="857" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J857" s="2"/>
+    </row>
+    <row r="858" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J858" s="2"/>
+    </row>
+    <row r="859" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J859" s="2"/>
+    </row>
+    <row r="860" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J860" s="2"/>
+    </row>
+    <row r="861" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J861" s="2"/>
+    </row>
+    <row r="862" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J862" s="2"/>
+    </row>
+    <row r="863" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J863" s="2"/>
+    </row>
+    <row r="864" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J864" s="2"/>
+    </row>
+    <row r="865" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J865" s="2"/>
+    </row>
+    <row r="866" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J866" s="2"/>
+    </row>
+    <row r="867" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J867" s="2"/>
+    </row>
+    <row r="868" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J868" s="2"/>
+    </row>
+    <row r="869" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J869" s="2"/>
+    </row>
+    <row r="870" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J870" s="2"/>
+    </row>
+    <row r="871" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J871" s="2"/>
+    </row>
+    <row r="872" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J872" s="2"/>
+    </row>
+    <row r="873" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J873" s="2"/>
+    </row>
+    <row r="874" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J874" s="2"/>
+    </row>
+    <row r="875" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J875" s="2"/>
+    </row>
+    <row r="876" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J876" s="2"/>
+    </row>
+    <row r="877" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J877" s="2"/>
+    </row>
+    <row r="878" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J878" s="2"/>
+    </row>
+    <row r="879" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J879" s="2"/>
+    </row>
+    <row r="880" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J880" s="2"/>
+    </row>
+    <row r="881" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J881" s="2"/>
+    </row>
+    <row r="882" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J882" s="2"/>
+    </row>
+    <row r="883" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J883" s="2"/>
+    </row>
+    <row r="884" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J884" s="2"/>
+    </row>
+    <row r="885" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J885" s="2"/>
+    </row>
+    <row r="886" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J886" s="2"/>
+    </row>
+    <row r="887" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J887" s="2"/>
+    </row>
+    <row r="888" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J888" s="2"/>
+    </row>
+    <row r="889" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J889" s="2"/>
+    </row>
+    <row r="890" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J890" s="2"/>
+    </row>
+    <row r="891" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J891" s="2"/>
+    </row>
+    <row r="892" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J892" s="2"/>
+    </row>
+    <row r="893" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J893" s="2"/>
+    </row>
+    <row r="894" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J894" s="2"/>
+    </row>
+    <row r="895" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J895" s="2"/>
+    </row>
+    <row r="896" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J896" s="2"/>
+    </row>
+    <row r="897" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J897" s="2"/>
+    </row>
+    <row r="898" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J898" s="2"/>
+    </row>
+    <row r="899" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J899" s="2"/>
+    </row>
+    <row r="900" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J900" s="2"/>
+    </row>
+    <row r="901" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J901" s="2"/>
+    </row>
+    <row r="902" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J902" s="2"/>
+    </row>
+    <row r="903" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J903" s="2"/>
+    </row>
+    <row r="904" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J904" s="2"/>
+    </row>
+    <row r="905" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J905" s="2"/>
+    </row>
+    <row r="906" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J906" s="2"/>
+    </row>
+    <row r="907" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J907" s="2"/>
+    </row>
+    <row r="908" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J908" s="2"/>
+    </row>
+    <row r="909" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J909" s="2"/>
+    </row>
+    <row r="910" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J910" s="2"/>
+    </row>
+    <row r="911" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J911" s="2"/>
+    </row>
+    <row r="912" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J912" s="2"/>
+    </row>
+    <row r="913" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J913" s="2"/>
+    </row>
+    <row r="914" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J914" s="2"/>
+    </row>
+    <row r="915" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J915" s="2"/>
+    </row>
+    <row r="916" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J916" s="2"/>
+    </row>
+    <row r="917" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J917" s="2"/>
+    </row>
+    <row r="918" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J918" s="2"/>
+    </row>
+    <row r="919" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J919" s="2"/>
+    </row>
+    <row r="920" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J920" s="2"/>
+    </row>
+    <row r="921" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J921" s="2"/>
+    </row>
+    <row r="922" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J922" s="2"/>
+    </row>
+    <row r="923" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J923" s="2"/>
+    </row>
+    <row r="924" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J924" s="2"/>
+    </row>
+    <row r="925" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J925" s="2"/>
+    </row>
+    <row r="926" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J926" s="2"/>
+    </row>
+    <row r="927" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J927" s="2"/>
+    </row>
+    <row r="928" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J928" s="2"/>
+    </row>
+    <row r="929" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J929" s="2"/>
+    </row>
+    <row r="930" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J930" s="2"/>
+    </row>
+    <row r="931" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J931" s="2"/>
+    </row>
+    <row r="932" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J932" s="2"/>
+    </row>
+    <row r="933" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J933" s="2"/>
+    </row>
+    <row r="934" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J934" s="2"/>
+    </row>
+    <row r="935" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J935" s="2"/>
+    </row>
+    <row r="936" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J936" s="2"/>
+    </row>
+    <row r="937" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J937" s="2"/>
+    </row>
+    <row r="938" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J938" s="2"/>
+    </row>
+    <row r="939" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J939" s="2"/>
+    </row>
+    <row r="940" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J940" s="2"/>
+    </row>
+    <row r="941" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J941" s="2"/>
+    </row>
+    <row r="942" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J942" s="2"/>
+    </row>
+    <row r="943" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J943" s="2"/>
+    </row>
+    <row r="944" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J944" s="2"/>
+    </row>
+    <row r="945" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J945" s="2"/>
+    </row>
+    <row r="946" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J946" s="2"/>
+    </row>
+    <row r="947" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J947" s="2"/>
+    </row>
+    <row r="948" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J948" s="2"/>
+    </row>
+    <row r="949" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J949" s="2"/>
+    </row>
+    <row r="950" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J950" s="2"/>
+    </row>
+    <row r="951" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J951" s="2"/>
+    </row>
+    <row r="952" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J952" s="2"/>
+    </row>
+    <row r="953" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J953" s="2"/>
+    </row>
+    <row r="954" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J954" s="2"/>
+    </row>
+    <row r="955" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J955" s="2"/>
+    </row>
+    <row r="956" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J956" s="2"/>
+    </row>
+    <row r="957" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J957" s="2"/>
+    </row>
+    <row r="958" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J958" s="2"/>
+    </row>
+    <row r="959" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J959" s="2"/>
+    </row>
+    <row r="960" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J960" s="2"/>
+    </row>
+    <row r="961" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J961" s="2"/>
+    </row>
+    <row r="962" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J962" s="2"/>
+    </row>
+    <row r="963" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J963" s="2"/>
+    </row>
+    <row r="964" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J964" s="2"/>
+    </row>
+    <row r="965" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J965" s="2"/>
+    </row>
+    <row r="966" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J966" s="2"/>
+    </row>
+    <row r="967" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J967" s="2"/>
+    </row>
+    <row r="968" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J968" s="2"/>
+    </row>
+    <row r="969" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J969" s="2"/>
+    </row>
+    <row r="970" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J970" s="2"/>
+    </row>
+    <row r="971" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J971" s="2"/>
+    </row>
+    <row r="972" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J972" s="2"/>
+    </row>
+    <row r="973" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J973" s="2"/>
+    </row>
+    <row r="974" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J974" s="2"/>
+    </row>
+    <row r="975" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J975" s="2"/>
+    </row>
+    <row r="976" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J976" s="2"/>
+    </row>
+    <row r="977" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J977" s="2"/>
+    </row>
+    <row r="978" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J978" s="2"/>
+    </row>
+    <row r="979" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J979" s="2"/>
+    </row>
+    <row r="980" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J980" s="2"/>
+    </row>
+    <row r="981" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J981" s="2"/>
+    </row>
+    <row r="982" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J982" s="2"/>
+    </row>
+    <row r="983" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J983" s="2"/>
+    </row>
+    <row r="984" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J984" s="2"/>
+    </row>
+    <row r="985" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J985" s="2"/>
+    </row>
+    <row r="986" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J986" s="2"/>
+    </row>
+    <row r="987" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J987" s="2"/>
+    </row>
+    <row r="988" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J988" s="2"/>
+    </row>
+    <row r="989" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J989" s="2"/>
+    </row>
+    <row r="990" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J990" s="2"/>
+    </row>
+    <row r="991" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J991" s="2"/>
+    </row>
+    <row r="992" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J992" s="2"/>
+    </row>
+    <row r="993" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J993" s="2"/>
+    </row>
+    <row r="994" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J994" s="2"/>
+    </row>
+    <row r="995" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J995" s="2"/>
+    </row>
+    <row r="996" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J996" s="2"/>
+    </row>
+    <row r="997" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J997" s="2"/>
+    </row>
+    <row r="998" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J998" s="2"/>
+    </row>
+    <row r="999" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J999" s="2"/>
+    </row>
+    <row r="1000" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J1000" s="2"/>
+    </row>
+    <row r="1001" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J1001" s="2"/>
+    </row>
+    <row r="1002" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J1002" s="2"/>
+    </row>
+    <row r="1003" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J1003" s="2"/>
+    </row>
+    <row r="1004" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J1004" s="2"/>
+    </row>
+    <row r="1005" spans="10:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="J1005" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:AA2 C3:H7 I3:AA18 C8:D9 F8:H9 C10:H11 C12:E12 G12:H12 C13:H18 C19:AA52 D53:E54 C55:AA76">
+  <conditionalFormatting sqref="C2:AB2 C3:I7 J3:AB18 C8:D9 F8:I9 C10:I11 C12:E12 H12:I12 C13:I18 C19:AB52 D53:E54 C55:AB76">
     <cfRule type="expression" dxfId="22" priority="1">
       <formula>"ISEVEN(ROW()"</formula>
     </cfRule>
@@ -9191,7 +9232,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" fitToHeight="0" orientation="landscape" r:id="rId9"/>
   <ignoredErrors>
-    <ignoredError sqref="I15" twoDigitTextYear="1"/>
+    <ignoredError sqref="J15" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10133,8 +10174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C4F1CA-A107-47E1-B61D-684F7BB5060E}">
   <dimension ref="A1:Z173"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" showRuler="0" view="pageLayout" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="B62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -10142,9 +10183,10 @@
     <col min="1" max="1" width="29.3828125" style="11" customWidth="1"/>
     <col min="2" max="2" width="17.4609375" style="11" customWidth="1"/>
     <col min="3" max="3" width="17.84375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="38.3828125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="37.53515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.765625" style="11"/>
+    <col min="6" max="6" width="3.4609375" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="8.765625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -10182,7 +10224,7 @@
         <v>baimp@earthlink.net</v>
       </c>
       <c r="E2" s="12" t="str" cm="1">
-        <f t="array" ref="E2:E76">Residents!I2:I76</f>
+        <f t="array" ref="E2:E76">Residents!J2:J76</f>
         <v>07/27</v>
       </c>
     </row>
